--- a/User_Data/SavedData/CPIAUCSL.xlsx
+++ b/User_Data/SavedData/CPIAUCSL.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Closing_Price" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,18 +20,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -47,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -88,12 +66,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -456,9 +434,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B410"/>
+  <dimension ref="A1:B412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -477,7 +455,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>32874</v>
       </c>
       <c r="B2" t="n">
@@ -485,7 +463,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>32905</v>
       </c>
       <c r="B3" t="n">
@@ -493,7 +471,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>32933</v>
       </c>
       <c r="B4" t="n">
@@ -501,7 +479,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>32964</v>
       </c>
       <c r="B5" t="n">
@@ -509,7 +487,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>32994</v>
       </c>
       <c r="B6" t="n">
@@ -517,7 +495,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>33025</v>
       </c>
       <c r="B7" t="n">
@@ -525,7 +503,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>33055</v>
       </c>
       <c r="B8" t="n">
@@ -533,7 +511,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>33086</v>
       </c>
       <c r="B9" t="n">
@@ -541,7 +519,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>33117</v>
       </c>
       <c r="B10" t="n">
@@ -549,7 +527,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>33147</v>
       </c>
       <c r="B11" t="n">
@@ -557,7 +535,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>33178</v>
       </c>
       <c r="B12" t="n">
@@ -565,7 +543,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>33208</v>
       </c>
       <c r="B13" t="n">
@@ -573,7 +551,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>33239</v>
       </c>
       <c r="B14" t="n">
@@ -581,7 +559,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>33270</v>
       </c>
       <c r="B15" t="n">
@@ -589,7 +567,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>33298</v>
       </c>
       <c r="B16" t="n">
@@ -597,7 +575,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>33329</v>
       </c>
       <c r="B17" t="n">
@@ -605,7 +583,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>33359</v>
       </c>
       <c r="B18" t="n">
@@ -613,7 +591,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>33390</v>
       </c>
       <c r="B19" t="n">
@@ -621,7 +599,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>33420</v>
       </c>
       <c r="B20" t="n">
@@ -629,7 +607,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>33451</v>
       </c>
       <c r="B21" t="n">
@@ -637,7 +615,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>33482</v>
       </c>
       <c r="B22" t="n">
@@ -645,7 +623,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>33512</v>
       </c>
       <c r="B23" t="n">
@@ -653,7 +631,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>33543</v>
       </c>
       <c r="B24" t="n">
@@ -661,7 +639,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>33573</v>
       </c>
       <c r="B25" t="n">
@@ -669,7 +647,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>33604</v>
       </c>
       <c r="B26" t="n">
@@ -677,7 +655,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="3" t="n">
         <v>33635</v>
       </c>
       <c r="B27" t="n">
@@ -685,7 +663,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="3" t="n">
         <v>33664</v>
       </c>
       <c r="B28" t="n">
@@ -693,7 +671,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="3" t="n">
         <v>33695</v>
       </c>
       <c r="B29" t="n">
@@ -701,7 +679,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="3" t="n">
         <v>33725</v>
       </c>
       <c r="B30" t="n">
@@ -709,7 +687,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="3" t="n">
         <v>33756</v>
       </c>
       <c r="B31" t="n">
@@ -717,7 +695,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="3" t="n">
         <v>33786</v>
       </c>
       <c r="B32" t="n">
@@ -725,7 +703,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="3" t="n">
         <v>33817</v>
       </c>
       <c r="B33" t="n">
@@ -733,7 +711,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>33848</v>
       </c>
       <c r="B34" t="n">
@@ -741,7 +719,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>33878</v>
       </c>
       <c r="B35" t="n">
@@ -749,7 +727,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="3" t="n">
         <v>33909</v>
       </c>
       <c r="B36" t="n">
@@ -757,7 +735,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="3" t="n">
         <v>33939</v>
       </c>
       <c r="B37" t="n">
@@ -765,7 +743,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="3" t="n">
         <v>33970</v>
       </c>
       <c r="B38" t="n">
@@ -773,7 +751,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="3" t="n">
         <v>34001</v>
       </c>
       <c r="B39" t="n">
@@ -781,7 +759,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="3" t="n">
         <v>34029</v>
       </c>
       <c r="B40" t="n">
@@ -789,7 +767,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="3" t="n">
         <v>34060</v>
       </c>
       <c r="B41" t="n">
@@ -797,7 +775,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="3" t="n">
         <v>34090</v>
       </c>
       <c r="B42" t="n">
@@ -805,7 +783,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="3" t="n">
         <v>34121</v>
       </c>
       <c r="B43" t="n">
@@ -813,7 +791,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="3" t="n">
         <v>34151</v>
       </c>
       <c r="B44" t="n">
@@ -821,7 +799,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="3" t="n">
         <v>34182</v>
       </c>
       <c r="B45" t="n">
@@ -829,7 +807,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>34213</v>
       </c>
       <c r="B46" t="n">
@@ -837,7 +815,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="3" t="n">
         <v>34243</v>
       </c>
       <c r="B47" t="n">
@@ -845,7 +823,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="3" t="n">
         <v>34274</v>
       </c>
       <c r="B48" t="n">
@@ -853,7 +831,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="3" t="n">
         <v>34304</v>
       </c>
       <c r="B49" t="n">
@@ -861,7 +839,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="3" t="n">
         <v>34335</v>
       </c>
       <c r="B50" t="n">
@@ -869,7 +847,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="3" t="n">
         <v>34366</v>
       </c>
       <c r="B51" t="n">
@@ -877,7 +855,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="3" t="n">
         <v>34394</v>
       </c>
       <c r="B52" t="n">
@@ -885,7 +863,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="3" t="n">
         <v>34425</v>
       </c>
       <c r="B53" t="n">
@@ -893,7 +871,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="3" t="n">
         <v>34455</v>
       </c>
       <c r="B54" t="n">
@@ -901,7 +879,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="3" t="n">
         <v>34486</v>
       </c>
       <c r="B55" t="n">
@@ -909,7 +887,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="3" t="n">
         <v>34516</v>
       </c>
       <c r="B56" t="n">
@@ -917,7 +895,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>34547</v>
       </c>
       <c r="B57" t="n">
@@ -925,7 +903,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="3" t="n">
         <v>34578</v>
       </c>
       <c r="B58" t="n">
@@ -933,7 +911,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="3" t="n">
         <v>34608</v>
       </c>
       <c r="B59" t="n">
@@ -941,7 +919,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="3" t="n">
         <v>34639</v>
       </c>
       <c r="B60" t="n">
@@ -949,7 +927,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="3" t="n">
         <v>34669</v>
       </c>
       <c r="B61" t="n">
@@ -957,7 +935,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="3" t="n">
         <v>34700</v>
       </c>
       <c r="B62" t="n">
@@ -965,7 +943,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="3" t="n">
         <v>34731</v>
       </c>
       <c r="B63" t="n">
@@ -973,7 +951,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="3" t="n">
         <v>34759</v>
       </c>
       <c r="B64" t="n">
@@ -981,7 +959,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="3" t="n">
         <v>34790</v>
       </c>
       <c r="B65" t="n">
@@ -989,7 +967,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>34820</v>
       </c>
       <c r="B66" t="n">
@@ -997,7 +975,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="3" t="n">
         <v>34851</v>
       </c>
       <c r="B67" t="n">
@@ -1005,7 +983,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>34881</v>
       </c>
       <c r="B68" t="n">
@@ -1013,7 +991,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="3" t="n">
         <v>34912</v>
       </c>
       <c r="B69" t="n">
@@ -1021,7 +999,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="3" t="n">
         <v>34943</v>
       </c>
       <c r="B70" t="n">
@@ -1029,7 +1007,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="3" t="n">
         <v>34973</v>
       </c>
       <c r="B71" t="n">
@@ -1037,7 +1015,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="3" t="n">
         <v>35004</v>
       </c>
       <c r="B72" t="n">
@@ -1045,7 +1023,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="3" t="n">
         <v>35034</v>
       </c>
       <c r="B73" t="n">
@@ -1053,7 +1031,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="3" t="n">
         <v>35065</v>
       </c>
       <c r="B74" t="n">
@@ -1061,7 +1039,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="3" t="n">
         <v>35096</v>
       </c>
       <c r="B75" t="n">
@@ -1069,7 +1047,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="3" t="n">
         <v>35125</v>
       </c>
       <c r="B76" t="n">
@@ -1077,7 +1055,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="3" t="n">
         <v>35156</v>
       </c>
       <c r="B77" t="n">
@@ -1085,7 +1063,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="3" t="n">
         <v>35186</v>
       </c>
       <c r="B78" t="n">
@@ -1093,7 +1071,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="3" t="n">
         <v>35217</v>
       </c>
       <c r="B79" t="n">
@@ -1101,7 +1079,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="3" t="n">
         <v>35247</v>
       </c>
       <c r="B80" t="n">
@@ -1109,7 +1087,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="3" t="n">
         <v>35278</v>
       </c>
       <c r="B81" t="n">
@@ -1117,7 +1095,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="3" t="n">
         <v>35309</v>
       </c>
       <c r="B82" t="n">
@@ -1125,7 +1103,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="3" t="n">
         <v>35339</v>
       </c>
       <c r="B83" t="n">
@@ -1133,7 +1111,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="3" t="n">
         <v>35370</v>
       </c>
       <c r="B84" t="n">
@@ -1141,7 +1119,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="3" t="n">
         <v>35400</v>
       </c>
       <c r="B85" t="n">
@@ -1149,7 +1127,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="3" t="n">
         <v>35431</v>
       </c>
       <c r="B86" t="n">
@@ -1157,7 +1135,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="3" t="n">
         <v>35462</v>
       </c>
       <c r="B87" t="n">
@@ -1165,7 +1143,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="3" t="n">
         <v>35490</v>
       </c>
       <c r="B88" t="n">
@@ -1173,7 +1151,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="3" t="n">
         <v>35521</v>
       </c>
       <c r="B89" t="n">
@@ -1181,7 +1159,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="3" t="n">
         <v>35551</v>
       </c>
       <c r="B90" t="n">
@@ -1189,7 +1167,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="3" t="n">
         <v>35582</v>
       </c>
       <c r="B91" t="n">
@@ -1197,7 +1175,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="3" t="n">
         <v>35612</v>
       </c>
       <c r="B92" t="n">
@@ -1205,7 +1183,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="3" t="n">
         <v>35643</v>
       </c>
       <c r="B93" t="n">
@@ -1213,7 +1191,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="3" t="n">
         <v>35674</v>
       </c>
       <c r="B94" t="n">
@@ -1221,7 +1199,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="3" t="n">
         <v>35704</v>
       </c>
       <c r="B95" t="n">
@@ -1229,7 +1207,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="3" t="n">
         <v>35735</v>
       </c>
       <c r="B96" t="n">
@@ -1237,7 +1215,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="3" t="n">
         <v>35765</v>
       </c>
       <c r="B97" t="n">
@@ -1245,7 +1223,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="3" t="n">
         <v>35796</v>
       </c>
       <c r="B98" t="n">
@@ -1253,7 +1231,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="3" t="n">
         <v>35827</v>
       </c>
       <c r="B99" t="n">
@@ -1261,7 +1239,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="3" t="n">
         <v>35855</v>
       </c>
       <c r="B100" t="n">
@@ -1269,7 +1247,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="3" t="n">
         <v>35886</v>
       </c>
       <c r="B101" t="n">
@@ -1277,7 +1255,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="3" t="n">
         <v>35916</v>
       </c>
       <c r="B102" t="n">
@@ -1285,7 +1263,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="3" t="n">
         <v>35947</v>
       </c>
       <c r="B103" t="n">
@@ -1293,7 +1271,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="3" t="n">
         <v>35977</v>
       </c>
       <c r="B104" t="n">
@@ -1301,7 +1279,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="3" t="n">
         <v>36008</v>
       </c>
       <c r="B105" t="n">
@@ -1309,7 +1287,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="3" t="n">
         <v>36039</v>
       </c>
       <c r="B106" t="n">
@@ -1317,7 +1295,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="3" t="n">
         <v>36069</v>
       </c>
       <c r="B107" t="n">
@@ -1325,7 +1303,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="3" t="n">
         <v>36100</v>
       </c>
       <c r="B108" t="n">
@@ -1333,7 +1311,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="3" t="n">
         <v>36130</v>
       </c>
       <c r="B109" t="n">
@@ -1341,7 +1319,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="3" t="n">
         <v>36161</v>
       </c>
       <c r="B110" t="n">
@@ -1349,7 +1327,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="3" t="n">
         <v>36192</v>
       </c>
       <c r="B111" t="n">
@@ -1357,7 +1335,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="3" t="n">
         <v>36220</v>
       </c>
       <c r="B112" t="n">
@@ -1365,7 +1343,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="3" t="n">
         <v>36251</v>
       </c>
       <c r="B113" t="n">
@@ -1373,7 +1351,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="3" t="n">
         <v>36281</v>
       </c>
       <c r="B114" t="n">
@@ -1381,7 +1359,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="3" t="n">
         <v>36312</v>
       </c>
       <c r="B115" t="n">
@@ -1389,7 +1367,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="3" t="n">
         <v>36342</v>
       </c>
       <c r="B116" t="n">
@@ -1397,7 +1375,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="3" t="n">
         <v>36373</v>
       </c>
       <c r="B117" t="n">
@@ -1405,7 +1383,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="3" t="n">
         <v>36404</v>
       </c>
       <c r="B118" t="n">
@@ -1413,7 +1391,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="3" t="n">
         <v>36434</v>
       </c>
       <c r="B119" t="n">
@@ -1421,7 +1399,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="3" t="n">
         <v>36465</v>
       </c>
       <c r="B120" t="n">
@@ -1429,7 +1407,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="3" t="n">
         <v>36495</v>
       </c>
       <c r="B121" t="n">
@@ -1437,7 +1415,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="3" t="n">
         <v>36526</v>
       </c>
       <c r="B122" t="n">
@@ -1445,7 +1423,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="3" t="n">
         <v>36557</v>
       </c>
       <c r="B123" t="n">
@@ -1453,7 +1431,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="3" t="n">
         <v>36586</v>
       </c>
       <c r="B124" t="n">
@@ -1461,7 +1439,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="3" t="n">
         <v>36617</v>
       </c>
       <c r="B125" t="n">
@@ -1469,7 +1447,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="3" t="n">
         <v>36647</v>
       </c>
       <c r="B126" t="n">
@@ -1477,7 +1455,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="3" t="n">
         <v>36678</v>
       </c>
       <c r="B127" t="n">
@@ -1485,7 +1463,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="3" t="n">
         <v>36708</v>
       </c>
       <c r="B128" t="n">
@@ -1493,7 +1471,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="3" t="n">
         <v>36739</v>
       </c>
       <c r="B129" t="n">
@@ -1501,7 +1479,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="3" t="n">
         <v>36770</v>
       </c>
       <c r="B130" t="n">
@@ -1509,7 +1487,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="3" t="n">
         <v>36800</v>
       </c>
       <c r="B131" t="n">
@@ -1517,7 +1495,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="3" t="n">
         <v>36831</v>
       </c>
       <c r="B132" t="n">
@@ -1525,7 +1503,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="3" t="n">
         <v>36861</v>
       </c>
       <c r="B133" t="n">
@@ -1533,7 +1511,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="3" t="n">
         <v>36892</v>
       </c>
       <c r="B134" t="n">
@@ -1541,7 +1519,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="3" t="n">
         <v>36923</v>
       </c>
       <c r="B135" t="n">
@@ -1549,7 +1527,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="3" t="n">
         <v>36951</v>
       </c>
       <c r="B136" t="n">
@@ -1557,7 +1535,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="3" t="n">
         <v>36982</v>
       </c>
       <c r="B137" t="n">
@@ -1565,7 +1543,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="3" t="n">
         <v>37012</v>
       </c>
       <c r="B138" t="n">
@@ -1573,7 +1551,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="3" t="n">
         <v>37043</v>
       </c>
       <c r="B139" t="n">
@@ -1581,7 +1559,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="3" t="n">
         <v>37073</v>
       </c>
       <c r="B140" t="n">
@@ -1589,7 +1567,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="3" t="n">
         <v>37104</v>
       </c>
       <c r="B141" t="n">
@@ -1597,7 +1575,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="3" t="n">
         <v>37135</v>
       </c>
       <c r="B142" t="n">
@@ -1605,7 +1583,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="3" t="n">
         <v>37165</v>
       </c>
       <c r="B143" t="n">
@@ -1613,7 +1591,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="3" t="n">
         <v>37196</v>
       </c>
       <c r="B144" t="n">
@@ -1621,7 +1599,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="3" t="n">
         <v>37226</v>
       </c>
       <c r="B145" t="n">
@@ -1629,7 +1607,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="3" t="n">
         <v>37257</v>
       </c>
       <c r="B146" t="n">
@@ -1637,7 +1615,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="3" t="n">
         <v>37288</v>
       </c>
       <c r="B147" t="n">
@@ -1645,7 +1623,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="3" t="n">
         <v>37316</v>
       </c>
       <c r="B148" t="n">
@@ -1653,7 +1631,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="3" t="n">
         <v>37347</v>
       </c>
       <c r="B149" t="n">
@@ -1661,7 +1639,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="3" t="n">
         <v>37377</v>
       </c>
       <c r="B150" t="n">
@@ -1669,7 +1647,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="3" t="n">
         <v>37408</v>
       </c>
       <c r="B151" t="n">
@@ -1677,7 +1655,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="3" t="n">
         <v>37438</v>
       </c>
       <c r="B152" t="n">
@@ -1685,7 +1663,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="3" t="n">
         <v>37469</v>
       </c>
       <c r="B153" t="n">
@@ -1693,7 +1671,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="3" t="n">
         <v>37500</v>
       </c>
       <c r="B154" t="n">
@@ -1701,7 +1679,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="3" t="n">
         <v>37530</v>
       </c>
       <c r="B155" t="n">
@@ -1709,7 +1687,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="3" t="n">
         <v>37561</v>
       </c>
       <c r="B156" t="n">
@@ -1717,7 +1695,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="3" t="n">
         <v>37591</v>
       </c>
       <c r="B157" t="n">
@@ -1725,7 +1703,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="3" t="n">
         <v>37622</v>
       </c>
       <c r="B158" t="n">
@@ -1733,7 +1711,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="3" t="n">
         <v>37653</v>
       </c>
       <c r="B159" t="n">
@@ -1741,7 +1719,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="3" t="n">
         <v>37681</v>
       </c>
       <c r="B160" t="n">
@@ -1749,7 +1727,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="3" t="n">
         <v>37712</v>
       </c>
       <c r="B161" t="n">
@@ -1757,7 +1735,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="3" t="n">
         <v>37742</v>
       </c>
       <c r="B162" t="n">
@@ -1765,7 +1743,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="3" t="n">
         <v>37773</v>
       </c>
       <c r="B163" t="n">
@@ -1773,7 +1751,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="3" t="n">
         <v>37803</v>
       </c>
       <c r="B164" t="n">
@@ -1781,7 +1759,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="3" t="n">
         <v>37834</v>
       </c>
       <c r="B165" t="n">
@@ -1789,7 +1767,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="3" t="n">
         <v>37865</v>
       </c>
       <c r="B166" t="n">
@@ -1797,7 +1775,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="3" t="n">
         <v>37895</v>
       </c>
       <c r="B167" t="n">
@@ -1805,7 +1783,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="3" t="n">
         <v>37926</v>
       </c>
       <c r="B168" t="n">
@@ -1813,7 +1791,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="3" t="n">
         <v>37956</v>
       </c>
       <c r="B169" t="n">
@@ -1821,7 +1799,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="3" t="n">
         <v>37987</v>
       </c>
       <c r="B170" t="n">
@@ -1829,7 +1807,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="3" t="n">
         <v>38018</v>
       </c>
       <c r="B171" t="n">
@@ -1837,7 +1815,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="3" t="n">
         <v>38047</v>
       </c>
       <c r="B172" t="n">
@@ -1845,7 +1823,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="3" t="n">
         <v>38078</v>
       </c>
       <c r="B173" t="n">
@@ -1853,7 +1831,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="3" t="n">
         <v>38108</v>
       </c>
       <c r="B174" t="n">
@@ -1861,7 +1839,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="3" t="n">
         <v>38139</v>
       </c>
       <c r="B175" t="n">
@@ -1869,7 +1847,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="3" t="n">
         <v>38169</v>
       </c>
       <c r="B176" t="n">
@@ -1877,7 +1855,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="3" t="n">
         <v>38200</v>
       </c>
       <c r="B177" t="n">
@@ -1885,7 +1863,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="3" t="n">
         <v>38231</v>
       </c>
       <c r="B178" t="n">
@@ -1893,7 +1871,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="3" t="n">
         <v>38261</v>
       </c>
       <c r="B179" t="n">
@@ -1901,7 +1879,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="3" t="n">
         <v>38292</v>
       </c>
       <c r="B180" t="n">
@@ -1909,7 +1887,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="3" t="n">
         <v>38322</v>
       </c>
       <c r="B181" t="n">
@@ -1917,7 +1895,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="3" t="n">
         <v>38353</v>
       </c>
       <c r="B182" t="n">
@@ -1925,7 +1903,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="3" t="n">
         <v>38384</v>
       </c>
       <c r="B183" t="n">
@@ -1933,7 +1911,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="3" t="n">
         <v>38412</v>
       </c>
       <c r="B184" t="n">
@@ -1941,7 +1919,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="3" t="n">
         <v>38443</v>
       </c>
       <c r="B185" t="n">
@@ -1949,7 +1927,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="3" t="n">
         <v>38473</v>
       </c>
       <c r="B186" t="n">
@@ -1957,7 +1935,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="3" t="n">
         <v>38504</v>
       </c>
       <c r="B187" t="n">
@@ -1965,7 +1943,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="3" t="n">
         <v>38534</v>
       </c>
       <c r="B188" t="n">
@@ -1973,7 +1951,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="3" t="n">
         <v>38565</v>
       </c>
       <c r="B189" t="n">
@@ -1981,7 +1959,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="3" t="n">
         <v>38596</v>
       </c>
       <c r="B190" t="n">
@@ -1989,7 +1967,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="3" t="n">
         <v>38626</v>
       </c>
       <c r="B191" t="n">
@@ -1997,7 +1975,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="3" t="n">
         <v>38657</v>
       </c>
       <c r="B192" t="n">
@@ -2005,7 +1983,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="3" t="n">
         <v>38687</v>
       </c>
       <c r="B193" t="n">
@@ -2013,7 +1991,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="3" t="n">
         <v>38718</v>
       </c>
       <c r="B194" t="n">
@@ -2021,7 +1999,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="3" t="n">
         <v>38749</v>
       </c>
       <c r="B195" t="n">
@@ -2029,7 +2007,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" s="3" t="n">
         <v>38777</v>
       </c>
       <c r="B196" t="n">
@@ -2037,7 +2015,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" s="3" t="n">
         <v>38808</v>
       </c>
       <c r="B197" t="n">
@@ -2045,7 +2023,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" s="3" t="n">
         <v>38838</v>
       </c>
       <c r="B198" t="n">
@@ -2053,7 +2031,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" s="3" t="n">
         <v>38869</v>
       </c>
       <c r="B199" t="n">
@@ -2061,7 +2039,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" s="3" t="n">
         <v>38899</v>
       </c>
       <c r="B200" t="n">
@@ -2069,7 +2047,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" s="3" t="n">
         <v>38930</v>
       </c>
       <c r="B201" t="n">
@@ -2077,7 +2055,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" s="3" t="n">
         <v>38961</v>
       </c>
       <c r="B202" t="n">
@@ -2085,7 +2063,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" s="3" t="n">
         <v>38991</v>
       </c>
       <c r="B203" t="n">
@@ -2093,7 +2071,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" s="3" t="n">
         <v>39022</v>
       </c>
       <c r="B204" t="n">
@@ -2101,7 +2079,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" s="3" t="n">
         <v>39052</v>
       </c>
       <c r="B205" t="n">
@@ -2109,7 +2087,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" s="3" t="n">
         <v>39083</v>
       </c>
       <c r="B206" t="n">
@@ -2117,7 +2095,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" s="3" t="n">
         <v>39114</v>
       </c>
       <c r="B207" t="n">
@@ -2125,7 +2103,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" s="3" t="n">
         <v>39142</v>
       </c>
       <c r="B208" t="n">
@@ -2133,7 +2111,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" s="3" t="n">
         <v>39173</v>
       </c>
       <c r="B209" t="n">
@@ -2141,7 +2119,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" s="3" t="n">
         <v>39203</v>
       </c>
       <c r="B210" t="n">
@@ -2149,7 +2127,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" s="3" t="n">
         <v>39234</v>
       </c>
       <c r="B211" t="n">
@@ -2157,7 +2135,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" s="3" t="n">
         <v>39264</v>
       </c>
       <c r="B212" t="n">
@@ -2165,7 +2143,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" s="3" t="n">
         <v>39295</v>
       </c>
       <c r="B213" t="n">
@@ -2173,7 +2151,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" s="3" t="n">
         <v>39326</v>
       </c>
       <c r="B214" t="n">
@@ -2181,7 +2159,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" s="3" t="n">
         <v>39356</v>
       </c>
       <c r="B215" t="n">
@@ -2189,7 +2167,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" s="3" t="n">
         <v>39387</v>
       </c>
       <c r="B216" t="n">
@@ -2197,7 +2175,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" s="3" t="n">
         <v>39417</v>
       </c>
       <c r="B217" t="n">
@@ -2205,7 +2183,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" s="3" t="n">
         <v>39448</v>
       </c>
       <c r="B218" t="n">
@@ -2213,7 +2191,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" s="3" t="n">
         <v>39479</v>
       </c>
       <c r="B219" t="n">
@@ -2221,7 +2199,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" s="3" t="n">
         <v>39508</v>
       </c>
       <c r="B220" t="n">
@@ -2229,7 +2207,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" s="3" t="n">
         <v>39539</v>
       </c>
       <c r="B221" t="n">
@@ -2237,7 +2215,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" s="3" t="n">
         <v>39569</v>
       </c>
       <c r="B222" t="n">
@@ -2245,7 +2223,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" s="3" t="n">
         <v>39600</v>
       </c>
       <c r="B223" t="n">
@@ -2253,7 +2231,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" s="3" t="n">
         <v>39630</v>
       </c>
       <c r="B224" t="n">
@@ -2261,7 +2239,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" s="3" t="n">
         <v>39661</v>
       </c>
       <c r="B225" t="n">
@@ -2269,7 +2247,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" s="3" t="n">
         <v>39692</v>
       </c>
       <c r="B226" t="n">
@@ -2277,7 +2255,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" s="3" t="n">
         <v>39722</v>
       </c>
       <c r="B227" t="n">
@@ -2285,7 +2263,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" s="3" t="n">
         <v>39753</v>
       </c>
       <c r="B228" t="n">
@@ -2293,7 +2271,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" s="3" t="n">
         <v>39783</v>
       </c>
       <c r="B229" t="n">
@@ -2301,7 +2279,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" s="3" t="n">
         <v>39814</v>
       </c>
       <c r="B230" t="n">
@@ -2309,7 +2287,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" s="3" t="n">
         <v>39845</v>
       </c>
       <c r="B231" t="n">
@@ -2317,7 +2295,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" s="3" t="n">
         <v>39873</v>
       </c>
       <c r="B232" t="n">
@@ -2325,7 +2303,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" s="3" t="n">
         <v>39904</v>
       </c>
       <c r="B233" t="n">
@@ -2333,7 +2311,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" s="3" t="n">
         <v>39934</v>
       </c>
       <c r="B234" t="n">
@@ -2341,7 +2319,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" s="3" t="n">
         <v>39965</v>
       </c>
       <c r="B235" t="n">
@@ -2349,7 +2327,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" s="3" t="n">
         <v>39995</v>
       </c>
       <c r="B236" t="n">
@@ -2357,7 +2335,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" s="3" t="n">
         <v>40026</v>
       </c>
       <c r="B237" t="n">
@@ -2365,7 +2343,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" s="3" t="n">
         <v>40057</v>
       </c>
       <c r="B238" t="n">
@@ -2373,7 +2351,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" s="3" t="n">
         <v>40087</v>
       </c>
       <c r="B239" t="n">
@@ -2381,7 +2359,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" s="3" t="n">
         <v>40118</v>
       </c>
       <c r="B240" t="n">
@@ -2389,7 +2367,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" s="3" t="n">
         <v>40148</v>
       </c>
       <c r="B241" t="n">
@@ -2397,7 +2375,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
+      <c r="A242" s="3" t="n">
         <v>40179</v>
       </c>
       <c r="B242" t="n">
@@ -2405,7 +2383,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" s="3" t="n">
         <v>40210</v>
       </c>
       <c r="B243" t="n">
@@ -2413,7 +2391,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" s="3" t="n">
         <v>40238</v>
       </c>
       <c r="B244" t="n">
@@ -2421,7 +2399,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" s="3" t="n">
         <v>40269</v>
       </c>
       <c r="B245" t="n">
@@ -2429,7 +2407,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" s="3" t="n">
         <v>40299</v>
       </c>
       <c r="B246" t="n">
@@ -2437,7 +2415,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" s="3" t="n">
         <v>40330</v>
       </c>
       <c r="B247" t="n">
@@ -2445,7 +2423,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" s="3" t="n">
         <v>40360</v>
       </c>
       <c r="B248" t="n">
@@ -2453,7 +2431,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" s="3" t="n">
         <v>40391</v>
       </c>
       <c r="B249" t="n">
@@ -2461,7 +2439,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" s="3" t="n">
         <v>40422</v>
       </c>
       <c r="B250" t="n">
@@ -2469,7 +2447,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" s="3" t="n">
         <v>40452</v>
       </c>
       <c r="B251" t="n">
@@ -2477,7 +2455,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" s="3" t="n">
         <v>40483</v>
       </c>
       <c r="B252" t="n">
@@ -2485,7 +2463,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" s="3" t="n">
         <v>40513</v>
       </c>
       <c r="B253" t="n">
@@ -2493,7 +2471,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" s="3" t="n">
         <v>40544</v>
       </c>
       <c r="B254" t="n">
@@ -2501,7 +2479,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" s="3" t="n">
         <v>40575</v>
       </c>
       <c r="B255" t="n">
@@ -2509,7 +2487,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" s="3" t="n">
         <v>40603</v>
       </c>
       <c r="B256" t="n">
@@ -2517,7 +2495,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" s="3" t="n">
         <v>40634</v>
       </c>
       <c r="B257" t="n">
@@ -2525,7 +2503,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" s="3" t="n">
         <v>40664</v>
       </c>
       <c r="B258" t="n">
@@ -2533,7 +2511,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" s="3" t="n">
         <v>40695</v>
       </c>
       <c r="B259" t="n">
@@ -2541,7 +2519,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" s="3" t="n">
         <v>40725</v>
       </c>
       <c r="B260" t="n">
@@ -2549,7 +2527,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" s="3" t="n">
         <v>40756</v>
       </c>
       <c r="B261" t="n">
@@ -2557,7 +2535,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" s="3" t="n">
         <v>40787</v>
       </c>
       <c r="B262" t="n">
@@ -2565,7 +2543,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" s="3" t="n">
         <v>40817</v>
       </c>
       <c r="B263" t="n">
@@ -2573,7 +2551,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" s="3" t="n">
         <v>40848</v>
       </c>
       <c r="B264" t="n">
@@ -2581,7 +2559,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" s="3" t="n">
         <v>40878</v>
       </c>
       <c r="B265" t="n">
@@ -2589,7 +2567,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" s="3" t="n">
         <v>40909</v>
       </c>
       <c r="B266" t="n">
@@ -2597,7 +2575,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" s="3" t="n">
         <v>40940</v>
       </c>
       <c r="B267" t="n">
@@ -2605,7 +2583,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" s="3" t="n">
         <v>40969</v>
       </c>
       <c r="B268" t="n">
@@ -2613,7 +2591,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" s="3" t="n">
         <v>41000</v>
       </c>
       <c r="B269" t="n">
@@ -2621,7 +2599,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" s="3" t="n">
         <v>41030</v>
       </c>
       <c r="B270" t="n">
@@ -2629,7 +2607,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" s="3" t="n">
         <v>41061</v>
       </c>
       <c r="B271" t="n">
@@ -2637,7 +2615,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="n">
+      <c r="A272" s="3" t="n">
         <v>41091</v>
       </c>
       <c r="B272" t="n">
@@ -2645,7 +2623,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" s="3" t="n">
         <v>41122</v>
       </c>
       <c r="B273" t="n">
@@ -2653,7 +2631,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" s="3" t="n">
         <v>41153</v>
       </c>
       <c r="B274" t="n">
@@ -2661,7 +2639,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" s="3" t="n">
         <v>41183</v>
       </c>
       <c r="B275" t="n">
@@ -2669,7 +2647,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" s="3" t="n">
         <v>41214</v>
       </c>
       <c r="B276" t="n">
@@ -2677,7 +2655,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="n">
+      <c r="A277" s="3" t="n">
         <v>41244</v>
       </c>
       <c r="B277" t="n">
@@ -2685,7 +2663,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="n">
+      <c r="A278" s="3" t="n">
         <v>41275</v>
       </c>
       <c r="B278" t="n">
@@ -2693,7 +2671,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
+      <c r="A279" s="3" t="n">
         <v>41306</v>
       </c>
       <c r="B279" t="n">
@@ -2701,7 +2679,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" s="3" t="n">
         <v>41334</v>
       </c>
       <c r="B280" t="n">
@@ -2709,7 +2687,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" s="3" t="n">
         <v>41365</v>
       </c>
       <c r="B281" t="n">
@@ -2717,7 +2695,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" s="3" t="n">
         <v>41395</v>
       </c>
       <c r="B282" t="n">
@@ -2725,7 +2703,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" s="3" t="n">
         <v>41426</v>
       </c>
       <c r="B283" t="n">
@@ -2733,7 +2711,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" s="3" t="n">
         <v>41456</v>
       </c>
       <c r="B284" t="n">
@@ -2741,7 +2719,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" s="3" t="n">
         <v>41487</v>
       </c>
       <c r="B285" t="n">
@@ -2749,7 +2727,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="2" t="n">
+      <c r="A286" s="3" t="n">
         <v>41518</v>
       </c>
       <c r="B286" t="n">
@@ -2757,7 +2735,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" s="3" t="n">
         <v>41548</v>
       </c>
       <c r="B287" t="n">
@@ -2765,7 +2743,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" s="3" t="n">
         <v>41579</v>
       </c>
       <c r="B288" t="n">
@@ -2773,7 +2751,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="n">
+      <c r="A289" s="3" t="n">
         <v>41609</v>
       </c>
       <c r="B289" t="n">
@@ -2781,7 +2759,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2" t="n">
+      <c r="A290" s="3" t="n">
         <v>41640</v>
       </c>
       <c r="B290" t="n">
@@ -2789,7 +2767,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
+      <c r="A291" s="3" t="n">
         <v>41671</v>
       </c>
       <c r="B291" t="n">
@@ -2797,7 +2775,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="n">
+      <c r="A292" s="3" t="n">
         <v>41699</v>
       </c>
       <c r="B292" t="n">
@@ -2805,7 +2783,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="n">
+      <c r="A293" s="3" t="n">
         <v>41730</v>
       </c>
       <c r="B293" t="n">
@@ -2813,7 +2791,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="2" t="n">
+      <c r="A294" s="3" t="n">
         <v>41760</v>
       </c>
       <c r="B294" t="n">
@@ -2821,7 +2799,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2" t="n">
+      <c r="A295" s="3" t="n">
         <v>41791</v>
       </c>
       <c r="B295" t="n">
@@ -2829,7 +2807,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="2" t="n">
+      <c r="A296" s="3" t="n">
         <v>41821</v>
       </c>
       <c r="B296" t="n">
@@ -2837,7 +2815,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="2" t="n">
+      <c r="A297" s="3" t="n">
         <v>41852</v>
       </c>
       <c r="B297" t="n">
@@ -2845,7 +2823,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2" t="n">
+      <c r="A298" s="3" t="n">
         <v>41883</v>
       </c>
       <c r="B298" t="n">
@@ -2853,7 +2831,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="n">
+      <c r="A299" s="3" t="n">
         <v>41913</v>
       </c>
       <c r="B299" t="n">
@@ -2861,7 +2839,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="2" t="n">
+      <c r="A300" s="3" t="n">
         <v>41944</v>
       </c>
       <c r="B300" t="n">
@@ -2869,7 +2847,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="2" t="n">
+      <c r="A301" s="3" t="n">
         <v>41974</v>
       </c>
       <c r="B301" t="n">
@@ -2877,7 +2855,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="2" t="n">
+      <c r="A302" s="3" t="n">
         <v>42005</v>
       </c>
       <c r="B302" t="n">
@@ -2885,7 +2863,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="2" t="n">
+      <c r="A303" s="3" t="n">
         <v>42036</v>
       </c>
       <c r="B303" t="n">
@@ -2893,7 +2871,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="2" t="n">
+      <c r="A304" s="3" t="n">
         <v>42064</v>
       </c>
       <c r="B304" t="n">
@@ -2901,7 +2879,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="2" t="n">
+      <c r="A305" s="3" t="n">
         <v>42095</v>
       </c>
       <c r="B305" t="n">
@@ -2909,7 +2887,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="2" t="n">
+      <c r="A306" s="3" t="n">
         <v>42125</v>
       </c>
       <c r="B306" t="n">
@@ -2917,7 +2895,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="2" t="n">
+      <c r="A307" s="3" t="n">
         <v>42156</v>
       </c>
       <c r="B307" t="n">
@@ -2925,7 +2903,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="2" t="n">
+      <c r="A308" s="3" t="n">
         <v>42186</v>
       </c>
       <c r="B308" t="n">
@@ -2933,7 +2911,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="2" t="n">
+      <c r="A309" s="3" t="n">
         <v>42217</v>
       </c>
       <c r="B309" t="n">
@@ -2941,7 +2919,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="2" t="n">
+      <c r="A310" s="3" t="n">
         <v>42248</v>
       </c>
       <c r="B310" t="n">
@@ -2949,7 +2927,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="n">
+      <c r="A311" s="3" t="n">
         <v>42278</v>
       </c>
       <c r="B311" t="n">
@@ -2957,7 +2935,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="n">
+      <c r="A312" s="3" t="n">
         <v>42309</v>
       </c>
       <c r="B312" t="n">
@@ -2965,7 +2943,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="n">
+      <c r="A313" s="3" t="n">
         <v>42339</v>
       </c>
       <c r="B313" t="n">
@@ -2973,7 +2951,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="2" t="n">
+      <c r="A314" s="3" t="n">
         <v>42370</v>
       </c>
       <c r="B314" t="n">
@@ -2981,7 +2959,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="2" t="n">
+      <c r="A315" s="3" t="n">
         <v>42401</v>
       </c>
       <c r="B315" t="n">
@@ -2989,7 +2967,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="2" t="n">
+      <c r="A316" s="3" t="n">
         <v>42430</v>
       </c>
       <c r="B316" t="n">
@@ -2997,7 +2975,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="2" t="n">
+      <c r="A317" s="3" t="n">
         <v>42461</v>
       </c>
       <c r="B317" t="n">
@@ -3005,7 +2983,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="2" t="n">
+      <c r="A318" s="3" t="n">
         <v>42491</v>
       </c>
       <c r="B318" t="n">
@@ -3013,7 +2991,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="2" t="n">
+      <c r="A319" s="3" t="n">
         <v>42522</v>
       </c>
       <c r="B319" t="n">
@@ -3021,7 +2999,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="2" t="n">
+      <c r="A320" s="3" t="n">
         <v>42552</v>
       </c>
       <c r="B320" t="n">
@@ -3029,7 +3007,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" s="3" t="n">
         <v>42583</v>
       </c>
       <c r="B321" t="n">
@@ -3037,7 +3015,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" s="3" t="n">
         <v>42614</v>
       </c>
       <c r="B322" t="n">
@@ -3045,7 +3023,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" s="3" t="n">
         <v>42644</v>
       </c>
       <c r="B323" t="n">
@@ -3053,7 +3031,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" s="3" t="n">
         <v>42675</v>
       </c>
       <c r="B324" t="n">
@@ -3061,7 +3039,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" s="3" t="n">
         <v>42705</v>
       </c>
       <c r="B325" t="n">
@@ -3069,7 +3047,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" s="3" t="n">
         <v>42736</v>
       </c>
       <c r="B326" t="n">
@@ -3077,7 +3055,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="n">
+      <c r="A327" s="3" t="n">
         <v>42767</v>
       </c>
       <c r="B327" t="n">
@@ -3085,7 +3063,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="n">
+      <c r="A328" s="3" t="n">
         <v>42795</v>
       </c>
       <c r="B328" t="n">
@@ -3093,7 +3071,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="2" t="n">
+      <c r="A329" s="3" t="n">
         <v>42826</v>
       </c>
       <c r="B329" t="n">
@@ -3101,7 +3079,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="2" t="n">
+      <c r="A330" s="3" t="n">
         <v>42856</v>
       </c>
       <c r="B330" t="n">
@@ -3109,7 +3087,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" s="3" t="n">
         <v>42887</v>
       </c>
       <c r="B331" t="n">
@@ -3117,7 +3095,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" s="3" t="n">
         <v>42917</v>
       </c>
       <c r="B332" t="n">
@@ -3125,7 +3103,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" s="3" t="n">
         <v>42948</v>
       </c>
       <c r="B333" t="n">
@@ -3133,7 +3111,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="2" t="n">
+      <c r="A334" s="3" t="n">
         <v>42979</v>
       </c>
       <c r="B334" t="n">
@@ -3141,7 +3119,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="2" t="n">
+      <c r="A335" s="3" t="n">
         <v>43009</v>
       </c>
       <c r="B335" t="n">
@@ -3149,7 +3127,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="2" t="n">
+      <c r="A336" s="3" t="n">
         <v>43040</v>
       </c>
       <c r="B336" t="n">
@@ -3157,7 +3135,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="2" t="n">
+      <c r="A337" s="3" t="n">
         <v>43070</v>
       </c>
       <c r="B337" t="n">
@@ -3165,7 +3143,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="2" t="n">
+      <c r="A338" s="3" t="n">
         <v>43101</v>
       </c>
       <c r="B338" t="n">
@@ -3173,7 +3151,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="2" t="n">
+      <c r="A339" s="3" t="n">
         <v>43132</v>
       </c>
       <c r="B339" t="n">
@@ -3181,7 +3159,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="2" t="n">
+      <c r="A340" s="3" t="n">
         <v>43160</v>
       </c>
       <c r="B340" t="n">
@@ -3189,7 +3167,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" s="3" t="n">
         <v>43191</v>
       </c>
       <c r="B341" t="n">
@@ -3197,7 +3175,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" s="3" t="n">
         <v>43221</v>
       </c>
       <c r="B342" t="n">
@@ -3205,7 +3183,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="B343" t="n">
@@ -3213,7 +3191,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" s="3" t="n">
         <v>43282</v>
       </c>
       <c r="B344" t="n">
@@ -3221,7 +3199,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" s="3" t="n">
         <v>43313</v>
       </c>
       <c r="B345" t="n">
@@ -3229,7 +3207,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="2" t="n">
+      <c r="A346" s="3" t="n">
         <v>43344</v>
       </c>
       <c r="B346" t="n">
@@ -3237,7 +3215,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="2" t="n">
+      <c r="A347" s="3" t="n">
         <v>43374</v>
       </c>
       <c r="B347" t="n">
@@ -3245,7 +3223,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="2" t="n">
+      <c r="A348" s="3" t="n">
         <v>43405</v>
       </c>
       <c r="B348" t="n">
@@ -3253,7 +3231,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="2" t="n">
+      <c r="A349" s="3" t="n">
         <v>43435</v>
       </c>
       <c r="B349" t="n">
@@ -3261,7 +3239,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="2" t="n">
+      <c r="A350" s="3" t="n">
         <v>43466</v>
       </c>
       <c r="B350" t="n">
@@ -3269,7 +3247,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="2" t="n">
+      <c r="A351" s="3" t="n">
         <v>43497</v>
       </c>
       <c r="B351" t="n">
@@ -3277,7 +3255,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="2" t="n">
+      <c r="A352" s="3" t="n">
         <v>43525</v>
       </c>
       <c r="B352" t="n">
@@ -3285,7 +3263,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="2" t="n">
+      <c r="A353" s="3" t="n">
         <v>43556</v>
       </c>
       <c r="B353" t="n">
@@ -3293,7 +3271,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="2" t="n">
+      <c r="A354" s="3" t="n">
         <v>43586</v>
       </c>
       <c r="B354" t="n">
@@ -3301,7 +3279,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="2" t="n">
+      <c r="A355" s="3" t="n">
         <v>43617</v>
       </c>
       <c r="B355" t="n">
@@ -3309,7 +3287,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="2" t="n">
+      <c r="A356" s="3" t="n">
         <v>43647</v>
       </c>
       <c r="B356" t="n">
@@ -3317,7 +3295,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="2" t="n">
+      <c r="A357" s="3" t="n">
         <v>43678</v>
       </c>
       <c r="B357" t="n">
@@ -3325,7 +3303,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="2" t="n">
+      <c r="A358" s="3" t="n">
         <v>43709</v>
       </c>
       <c r="B358" t="n">
@@ -3333,7 +3311,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="2" t="n">
+      <c r="A359" s="3" t="n">
         <v>43739</v>
       </c>
       <c r="B359" t="n">
@@ -3341,7 +3319,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="2" t="n">
+      <c r="A360" s="3" t="n">
         <v>43770</v>
       </c>
       <c r="B360" t="n">
@@ -3349,7 +3327,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="2" t="n">
+      <c r="A361" s="3" t="n">
         <v>43800</v>
       </c>
       <c r="B361" t="n">
@@ -3357,7 +3335,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="2" t="n">
+      <c r="A362" s="3" t="n">
         <v>43831</v>
       </c>
       <c r="B362" t="n">
@@ -3365,7 +3343,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="2" t="n">
+      <c r="A363" s="3" t="n">
         <v>43862</v>
       </c>
       <c r="B363" t="n">
@@ -3373,7 +3351,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="2" t="n">
+      <c r="A364" s="3" t="n">
         <v>43891</v>
       </c>
       <c r="B364" t="n">
@@ -3381,7 +3359,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="2" t="n">
+      <c r="A365" s="3" t="n">
         <v>43922</v>
       </c>
       <c r="B365" t="n">
@@ -3389,7 +3367,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="2" t="n">
+      <c r="A366" s="3" t="n">
         <v>43952</v>
       </c>
       <c r="B366" t="n">
@@ -3397,7 +3375,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="2" t="n">
+      <c r="A367" s="3" t="n">
         <v>43983</v>
       </c>
       <c r="B367" t="n">
@@ -3405,7 +3383,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="2" t="n">
+      <c r="A368" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="B368" t="n">
@@ -3413,7 +3391,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="2" t="n">
+      <c r="A369" s="3" t="n">
         <v>44044</v>
       </c>
       <c r="B369" t="n">
@@ -3421,7 +3399,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="2" t="n">
+      <c r="A370" s="3" t="n">
         <v>44075</v>
       </c>
       <c r="B370" t="n">
@@ -3429,7 +3407,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="2" t="n">
+      <c r="A371" s="3" t="n">
         <v>44105</v>
       </c>
       <c r="B371" t="n">
@@ -3437,7 +3415,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="2" t="n">
+      <c r="A372" s="3" t="n">
         <v>44136</v>
       </c>
       <c r="B372" t="n">
@@ -3445,7 +3423,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="2" t="n">
+      <c r="A373" s="3" t="n">
         <v>44166</v>
       </c>
       <c r="B373" t="n">
@@ -3453,7 +3431,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="2" t="n">
+      <c r="A374" s="3" t="n">
         <v>44197</v>
       </c>
       <c r="B374" t="n">
@@ -3461,7 +3439,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="2" t="n">
+      <c r="A375" s="3" t="n">
         <v>44228</v>
       </c>
       <c r="B375" t="n">
@@ -3469,7 +3447,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="2" t="n">
+      <c r="A376" s="3" t="n">
         <v>44256</v>
       </c>
       <c r="B376" t="n">
@@ -3477,7 +3455,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="2" t="n">
+      <c r="A377" s="3" t="n">
         <v>44287</v>
       </c>
       <c r="B377" t="n">
@@ -3485,7 +3463,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="2" t="n">
+      <c r="A378" s="3" t="n">
         <v>44317</v>
       </c>
       <c r="B378" t="n">
@@ -3493,7 +3471,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="2" t="n">
+      <c r="A379" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="B379" t="n">
@@ -3501,7 +3479,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="2" t="n">
+      <c r="A380" s="3" t="n">
         <v>44378</v>
       </c>
       <c r="B380" t="n">
@@ -3509,7 +3487,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="2" t="n">
+      <c r="A381" s="3" t="n">
         <v>44409</v>
       </c>
       <c r="B381" t="n">
@@ -3517,7 +3495,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="2" t="n">
+      <c r="A382" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="B382" t="n">
@@ -3525,7 +3503,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="2" t="n">
+      <c r="A383" s="3" t="n">
         <v>44470</v>
       </c>
       <c r="B383" t="n">
@@ -3533,7 +3511,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="2" t="n">
+      <c r="A384" s="3" t="n">
         <v>44501</v>
       </c>
       <c r="B384" t="n">
@@ -3541,7 +3519,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="2" t="n">
+      <c r="A385" s="3" t="n">
         <v>44531</v>
       </c>
       <c r="B385" t="n">
@@ -3549,7 +3527,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="2" t="n">
+      <c r="A386" s="3" t="n">
         <v>44562</v>
       </c>
       <c r="B386" t="n">
@@ -3557,7 +3535,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" s="3" t="n">
         <v>44593</v>
       </c>
       <c r="B387" t="n">
@@ -3565,7 +3543,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" s="3" t="n">
         <v>44621</v>
       </c>
       <c r="B388" t="n">
@@ -3573,7 +3551,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" s="3" t="n">
         <v>44652</v>
       </c>
       <c r="B389" t="n">
@@ -3581,7 +3559,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" s="3" t="n">
         <v>44682</v>
       </c>
       <c r="B390" t="n">
@@ -3589,7 +3567,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="2" t="n">
+      <c r="A391" s="3" t="n">
         <v>44713</v>
       </c>
       <c r="B391" t="n">
@@ -3597,7 +3575,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="2" t="n">
+      <c r="A392" s="3" t="n">
         <v>44743</v>
       </c>
       <c r="B392" t="n">
@@ -3605,7 +3583,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="2" t="n">
+      <c r="A393" s="3" t="n">
         <v>44774</v>
       </c>
       <c r="B393" t="n">
@@ -3613,7 +3591,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="2" t="n">
+      <c r="A394" s="3" t="n">
         <v>44805</v>
       </c>
       <c r="B394" t="n">
@@ -3621,7 +3599,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="2" t="n">
+      <c r="A395" s="3" t="n">
         <v>44835</v>
       </c>
       <c r="B395" t="n">
@@ -3629,7 +3607,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="2" t="n">
+      <c r="A396" s="3" t="n">
         <v>44866</v>
       </c>
       <c r="B396" t="n">
@@ -3637,7 +3615,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="2" t="n">
+      <c r="A397" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="B397" t="n">
@@ -3645,7 +3623,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="2" t="n">
+      <c r="A398" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="B398" t="n">
@@ -3653,7 +3631,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="2" t="n">
+      <c r="A399" s="3" t="n">
         <v>44958</v>
       </c>
       <c r="B399" t="n">
@@ -3661,7 +3639,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="2" t="n">
+      <c r="A400" s="3" t="n">
         <v>44986</v>
       </c>
       <c r="B400" t="n">
@@ -3669,7 +3647,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="2" t="n">
+      <c r="A401" s="3" t="n">
         <v>45017</v>
       </c>
       <c r="B401" t="n">
@@ -3677,7 +3655,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="2" t="n">
+      <c r="A402" s="3" t="n">
         <v>45047</v>
       </c>
       <c r="B402" t="n">
@@ -3685,7 +3663,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="2" t="n">
+      <c r="A403" s="3" t="n">
         <v>45078</v>
       </c>
       <c r="B403" t="n">
@@ -3693,7 +3671,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="2" t="n">
+      <c r="A404" s="3" t="n">
         <v>45108</v>
       </c>
       <c r="B404" t="n">
@@ -3701,7 +3679,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="2" t="n">
+      <c r="A405" s="3" t="n">
         <v>45139</v>
       </c>
       <c r="B405" t="n">
@@ -3709,7 +3687,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="2" t="n">
+      <c r="A406" s="3" t="n">
         <v>45170</v>
       </c>
       <c r="B406" t="n">
@@ -3717,7 +3695,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="2" t="n">
+      <c r="A407" s="3" t="n">
         <v>45200</v>
       </c>
       <c r="B407" t="n">
@@ -3725,7 +3703,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="2" t="n">
+      <c r="A408" s="3" t="n">
         <v>45231</v>
       </c>
       <c r="B408" t="n">
@@ -3733,7 +3711,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="2" t="n">
+      <c r="A409" s="3" t="n">
         <v>45261</v>
       </c>
       <c r="B409" t="n">
@@ -3741,15 +3719,31 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="2" t="n">
+      <c r="A410" s="3" t="n">
         <v>45292</v>
       </c>
       <c r="B410" t="n">
         <v>309.685</v>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" s="3" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B411" t="n">
+        <v>311.054</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B412" t="n">
+        <v>312.23</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3768,17 +3762,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Property</t>
         </is>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>units</t>
         </is>
@@ -3790,7 +3784,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>units_short</t>
         </is>
@@ -3802,31 +3796,31 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>U.S CPI</t>
+          <t>U.S Consumer price index (CPI)</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Trace_3</t>
+          <t>CPIAUCSL</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>

--- a/User_Data/SavedData/CPIAUCSL.xlsx
+++ b/User_Data/SavedData/CPIAUCSL.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B412"/>
+  <dimension ref="A1:B775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,3290 +456,6194 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>32874</v>
+        <v>21916</v>
       </c>
       <c r="B2" t="n">
-        <v>127.5</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>32905</v>
+        <v>21947</v>
       </c>
       <c r="B3" t="n">
-        <v>128</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>32933</v>
+        <v>21976</v>
       </c>
       <c r="B4" t="n">
-        <v>128.6</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>32964</v>
+        <v>22007</v>
       </c>
       <c r="B5" t="n">
-        <v>128.9</v>
+        <v>29.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>32994</v>
+        <v>22037</v>
       </c>
       <c r="B6" t="n">
-        <v>129.1</v>
+        <v>29.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>33025</v>
+        <v>22068</v>
       </c>
       <c r="B7" t="n">
-        <v>129.9</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>33055</v>
+        <v>22098</v>
       </c>
       <c r="B8" t="n">
-        <v>130.5</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>33086</v>
+        <v>22129</v>
       </c>
       <c r="B9" t="n">
-        <v>131.6</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>33117</v>
+        <v>22160</v>
       </c>
       <c r="B10" t="n">
-        <v>132.5</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>33147</v>
+        <v>22190</v>
       </c>
       <c r="B11" t="n">
-        <v>133.4</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>33178</v>
+        <v>22221</v>
       </c>
       <c r="B12" t="n">
-        <v>133.7</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>33208</v>
+        <v>22251</v>
       </c>
       <c r="B13" t="n">
-        <v>134.2</v>
+        <v>29.81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>33239</v>
+        <v>22282</v>
       </c>
       <c r="B14" t="n">
-        <v>134.7</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>33270</v>
+        <v>22313</v>
       </c>
       <c r="B15" t="n">
-        <v>134.8</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>33298</v>
+        <v>22341</v>
       </c>
       <c r="B16" t="n">
-        <v>134.8</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>33329</v>
+        <v>22372</v>
       </c>
       <c r="B17" t="n">
-        <v>135.1</v>
+        <v>29.81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>33359</v>
+        <v>22402</v>
       </c>
       <c r="B18" t="n">
-        <v>135.6</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>33390</v>
+        <v>22433</v>
       </c>
       <c r="B19" t="n">
-        <v>136</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>33420</v>
+        <v>22463</v>
       </c>
       <c r="B20" t="n">
-        <v>136.2</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>33451</v>
+        <v>22494</v>
       </c>
       <c r="B21" t="n">
-        <v>136.6</v>
+        <v>29.94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>33482</v>
+        <v>22525</v>
       </c>
       <c r="B22" t="n">
-        <v>137</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>33512</v>
+        <v>22555</v>
       </c>
       <c r="B23" t="n">
-        <v>137.2</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>33543</v>
+        <v>22586</v>
       </c>
       <c r="B24" t="n">
-        <v>137.8</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>33573</v>
+        <v>22616</v>
       </c>
       <c r="B25" t="n">
-        <v>138.2</v>
+        <v>30.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>33604</v>
+        <v>22647</v>
       </c>
       <c r="B26" t="n">
-        <v>138.3</v>
+        <v>30.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>33635</v>
+        <v>22678</v>
       </c>
       <c r="B27" t="n">
-        <v>138.6</v>
+        <v>30.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>33664</v>
+        <v>22706</v>
       </c>
       <c r="B28" t="n">
-        <v>139.1</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>33695</v>
+        <v>22737</v>
       </c>
       <c r="B29" t="n">
-        <v>139.4</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>33725</v>
+        <v>22767</v>
       </c>
       <c r="B30" t="n">
-        <v>139.7</v>
+        <v>30.24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>33756</v>
+        <v>22798</v>
       </c>
       <c r="B31" t="n">
-        <v>140.1</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>33786</v>
+        <v>22828</v>
       </c>
       <c r="B32" t="n">
-        <v>140.5</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>33817</v>
+        <v>22859</v>
       </c>
       <c r="B33" t="n">
-        <v>140.8</v>
+        <v>30.28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>33848</v>
+        <v>22890</v>
       </c>
       <c r="B34" t="n">
-        <v>141.1</v>
+        <v>30.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>33878</v>
+        <v>22920</v>
       </c>
       <c r="B35" t="n">
-        <v>141.7</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>33909</v>
+        <v>22951</v>
       </c>
       <c r="B36" t="n">
-        <v>142.1</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>33939</v>
+        <v>22981</v>
       </c>
       <c r="B37" t="n">
-        <v>142.3</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>33970</v>
+        <v>23012</v>
       </c>
       <c r="B38" t="n">
-        <v>142.8</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>34001</v>
+        <v>23043</v>
       </c>
       <c r="B39" t="n">
-        <v>143.1</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>34029</v>
+        <v>23071</v>
       </c>
       <c r="B40" t="n">
-        <v>143.3</v>
+        <v>30.51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>34060</v>
+        <v>23102</v>
       </c>
       <c r="B41" t="n">
-        <v>143.8</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>34090</v>
+        <v>23132</v>
       </c>
       <c r="B42" t="n">
-        <v>144.2</v>
+        <v>30.51</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>34121</v>
+        <v>23163</v>
       </c>
       <c r="B43" t="n">
-        <v>144.3</v>
+        <v>30.61</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>34151</v>
+        <v>23193</v>
       </c>
       <c r="B44" t="n">
-        <v>144.5</v>
+        <v>30.69</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>34182</v>
+        <v>23224</v>
       </c>
       <c r="B45" t="n">
-        <v>144.8</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>34213</v>
+        <v>23255</v>
       </c>
       <c r="B46" t="n">
-        <v>145</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>34243</v>
+        <v>23285</v>
       </c>
       <c r="B47" t="n">
-        <v>145.6</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>34274</v>
+        <v>23316</v>
       </c>
       <c r="B48" t="n">
-        <v>146</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>34304</v>
+        <v>23346</v>
       </c>
       <c r="B49" t="n">
-        <v>146.3</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>34335</v>
+        <v>23377</v>
       </c>
       <c r="B50" t="n">
-        <v>146.3</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>34366</v>
+        <v>23408</v>
       </c>
       <c r="B51" t="n">
-        <v>146.7</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>34394</v>
+        <v>23437</v>
       </c>
       <c r="B52" t="n">
-        <v>147.1</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>34425</v>
+        <v>23468</v>
       </c>
       <c r="B53" t="n">
-        <v>147.2</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>34455</v>
+        <v>23498</v>
       </c>
       <c r="B54" t="n">
-        <v>147.5</v>
+        <v>30.98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>34486</v>
+        <v>23529</v>
       </c>
       <c r="B55" t="n">
-        <v>147.9</v>
+        <v>31.01</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>34516</v>
+        <v>23559</v>
       </c>
       <c r="B56" t="n">
-        <v>148.4</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>34547</v>
+        <v>23590</v>
       </c>
       <c r="B57" t="n">
-        <v>149</v>
+        <v>31.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>34578</v>
+        <v>23621</v>
       </c>
       <c r="B58" t="n">
-        <v>149.3</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>34608</v>
+        <v>23651</v>
       </c>
       <c r="B59" t="n">
-        <v>149.4</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>34639</v>
+        <v>23682</v>
       </c>
       <c r="B60" t="n">
-        <v>149.8</v>
+        <v>31.21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>34669</v>
+        <v>23712</v>
       </c>
       <c r="B61" t="n">
-        <v>150.1</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>34700</v>
+        <v>23743</v>
       </c>
       <c r="B62" t="n">
-        <v>150.5</v>
+        <v>31.28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>34731</v>
+        <v>23774</v>
       </c>
       <c r="B63" t="n">
-        <v>150.9</v>
+        <v>31.28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>34759</v>
+        <v>23802</v>
       </c>
       <c r="B64" t="n">
-        <v>151.2</v>
+        <v>31.31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>34790</v>
+        <v>23833</v>
       </c>
       <c r="B65" t="n">
-        <v>151.8</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>34820</v>
+        <v>23863</v>
       </c>
       <c r="B66" t="n">
-        <v>152.1</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>34851</v>
+        <v>23894</v>
       </c>
       <c r="B67" t="n">
-        <v>152.4</v>
+        <v>31.61</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>34881</v>
+        <v>23924</v>
       </c>
       <c r="B68" t="n">
-        <v>152.6</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>34912</v>
+        <v>23955</v>
       </c>
       <c r="B69" t="n">
-        <v>152.9</v>
+        <v>31.55</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>34943</v>
+        <v>23986</v>
       </c>
       <c r="B70" t="n">
-        <v>153.1</v>
+        <v>31.62</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>34973</v>
+        <v>24016</v>
       </c>
       <c r="B71" t="n">
-        <v>153.5</v>
+        <v>31.65</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>35004</v>
+        <v>24047</v>
       </c>
       <c r="B72" t="n">
-        <v>153.7</v>
+        <v>31.75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>35034</v>
+        <v>24077</v>
       </c>
       <c r="B73" t="n">
-        <v>153.9</v>
+        <v>31.85</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>35065</v>
+        <v>24108</v>
       </c>
       <c r="B74" t="n">
-        <v>154.7</v>
+        <v>31.88</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>35096</v>
+        <v>24139</v>
       </c>
       <c r="B75" t="n">
-        <v>155</v>
+        <v>32.08</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>35125</v>
+        <v>24167</v>
       </c>
       <c r="B76" t="n">
-        <v>155.5</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>35156</v>
+        <v>24198</v>
       </c>
       <c r="B77" t="n">
-        <v>156.1</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>35186</v>
+        <v>24228</v>
       </c>
       <c r="B78" t="n">
-        <v>156.4</v>
+        <v>32.35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>35217</v>
+        <v>24259</v>
       </c>
       <c r="B79" t="n">
-        <v>156.7</v>
+        <v>32.38</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>35247</v>
+        <v>24289</v>
       </c>
       <c r="B80" t="n">
-        <v>157</v>
+        <v>32.45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>35278</v>
+        <v>24320</v>
       </c>
       <c r="B81" t="n">
-        <v>157.2</v>
+        <v>32.65</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>35309</v>
+        <v>24351</v>
       </c>
       <c r="B82" t="n">
-        <v>157.7</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>35339</v>
+        <v>24381</v>
       </c>
       <c r="B83" t="n">
-        <v>158.2</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>35370</v>
+        <v>24412</v>
       </c>
       <c r="B84" t="n">
-        <v>158.7</v>
+        <v>32.88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>35400</v>
+        <v>24442</v>
       </c>
       <c r="B85" t="n">
-        <v>159.1</v>
+        <v>32.92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>35431</v>
+        <v>24473</v>
       </c>
       <c r="B86" t="n">
-        <v>159.4</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>35462</v>
+        <v>24504</v>
       </c>
       <c r="B87" t="n">
-        <v>159.7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>35490</v>
+        <v>24532</v>
       </c>
       <c r="B88" t="n">
-        <v>159.8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>35521</v>
+        <v>24563</v>
       </c>
       <c r="B89" t="n">
-        <v>159.9</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>35551</v>
+        <v>24593</v>
       </c>
       <c r="B90" t="n">
-        <v>159.9</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>35582</v>
+        <v>24624</v>
       </c>
       <c r="B91" t="n">
-        <v>160.2</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>35612</v>
+        <v>24654</v>
       </c>
       <c r="B92" t="n">
-        <v>160.4</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>35643</v>
+        <v>24685</v>
       </c>
       <c r="B93" t="n">
-        <v>160.8</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>35674</v>
+        <v>24716</v>
       </c>
       <c r="B94" t="n">
-        <v>161.2</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>35704</v>
+        <v>24746</v>
       </c>
       <c r="B95" t="n">
-        <v>161.5</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>35735</v>
+        <v>24777</v>
       </c>
       <c r="B96" t="n">
-        <v>161.7</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>35765</v>
+        <v>24807</v>
       </c>
       <c r="B97" t="n">
-        <v>161.8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>35796</v>
+        <v>24838</v>
       </c>
       <c r="B98" t="n">
-        <v>162</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>35827</v>
+        <v>24869</v>
       </c>
       <c r="B99" t="n">
-        <v>162</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>35855</v>
+        <v>24898</v>
       </c>
       <c r="B100" t="n">
-        <v>162</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>35886</v>
+        <v>24929</v>
       </c>
       <c r="B101" t="n">
-        <v>162.2</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>35916</v>
+        <v>24959</v>
       </c>
       <c r="B102" t="n">
-        <v>162.6</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>35947</v>
+        <v>24990</v>
       </c>
       <c r="B103" t="n">
-        <v>162.8</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>35977</v>
+        <v>25020</v>
       </c>
       <c r="B104" t="n">
-        <v>163.2</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>36008</v>
+        <v>25051</v>
       </c>
       <c r="B105" t="n">
-        <v>163.4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>36039</v>
+        <v>25082</v>
       </c>
       <c r="B106" t="n">
-        <v>163.5</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>36069</v>
+        <v>25112</v>
       </c>
       <c r="B107" t="n">
-        <v>163.9</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>36100</v>
+        <v>25143</v>
       </c>
       <c r="B108" t="n">
-        <v>164.1</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>36130</v>
+        <v>25173</v>
       </c>
       <c r="B109" t="n">
-        <v>164.4</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>36161</v>
+        <v>25204</v>
       </c>
       <c r="B110" t="n">
-        <v>164.7</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>36192</v>
+        <v>25235</v>
       </c>
       <c r="B111" t="n">
-        <v>164.7</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>36220</v>
+        <v>25263</v>
       </c>
       <c r="B112" t="n">
-        <v>164.8</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>36251</v>
+        <v>25294</v>
       </c>
       <c r="B113" t="n">
-        <v>165.9</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>36281</v>
+        <v>25324</v>
       </c>
       <c r="B114" t="n">
-        <v>166</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>36312</v>
+        <v>25355</v>
       </c>
       <c r="B115" t="n">
-        <v>166</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>36342</v>
+        <v>25385</v>
       </c>
       <c r="B116" t="n">
-        <v>166.7</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>36373</v>
+        <v>25416</v>
       </c>
       <c r="B117" t="n">
-        <v>167.1</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>36404</v>
+        <v>25447</v>
       </c>
       <c r="B118" t="n">
-        <v>167.8</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>36434</v>
+        <v>25477</v>
       </c>
       <c r="B119" t="n">
-        <v>168.1</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>36465</v>
+        <v>25508</v>
       </c>
       <c r="B120" t="n">
-        <v>168.4</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>36495</v>
+        <v>25538</v>
       </c>
       <c r="B121" t="n">
-        <v>168.8</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>36526</v>
+        <v>25569</v>
       </c>
       <c r="B122" t="n">
-        <v>169.3</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>36557</v>
+        <v>25600</v>
       </c>
       <c r="B123" t="n">
-        <v>170</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>36586</v>
+        <v>25628</v>
       </c>
       <c r="B124" t="n">
-        <v>171</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>36617</v>
+        <v>25659</v>
       </c>
       <c r="B125" t="n">
-        <v>170.9</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>36647</v>
+        <v>25689</v>
       </c>
       <c r="B126" t="n">
-        <v>171.2</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>36678</v>
+        <v>25720</v>
       </c>
       <c r="B127" t="n">
-        <v>172.2</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>36708</v>
+        <v>25750</v>
       </c>
       <c r="B128" t="n">
-        <v>172.7</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>36739</v>
+        <v>25781</v>
       </c>
       <c r="B129" t="n">
-        <v>172.7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>36770</v>
+        <v>25812</v>
       </c>
       <c r="B130" t="n">
-        <v>173.6</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>36800</v>
+        <v>25842</v>
       </c>
       <c r="B131" t="n">
-        <v>173.9</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>36831</v>
+        <v>25873</v>
       </c>
       <c r="B132" t="n">
-        <v>174.2</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>36861</v>
+        <v>25903</v>
       </c>
       <c r="B133" t="n">
-        <v>174.6</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>36892</v>
+        <v>25934</v>
       </c>
       <c r="B134" t="n">
-        <v>175.6</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>36923</v>
+        <v>25965</v>
       </c>
       <c r="B135" t="n">
-        <v>176</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>36951</v>
+        <v>25993</v>
       </c>
       <c r="B136" t="n">
-        <v>176.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>36982</v>
+        <v>26024</v>
       </c>
       <c r="B137" t="n">
-        <v>176.4</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>37012</v>
+        <v>26054</v>
       </c>
       <c r="B138" t="n">
-        <v>177.3</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>37043</v>
+        <v>26085</v>
       </c>
       <c r="B139" t="n">
-        <v>177.7</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>37073</v>
+        <v>26115</v>
       </c>
       <c r="B140" t="n">
-        <v>177.4</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>37104</v>
+        <v>26146</v>
       </c>
       <c r="B141" t="n">
-        <v>177.4</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>37135</v>
+        <v>26177</v>
       </c>
       <c r="B142" t="n">
-        <v>178.1</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>37165</v>
+        <v>26207</v>
       </c>
       <c r="B143" t="n">
-        <v>177.6</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>37196</v>
+        <v>26238</v>
       </c>
       <c r="B144" t="n">
-        <v>177.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>37226</v>
+        <v>26268</v>
       </c>
       <c r="B145" t="n">
-        <v>177.4</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>37257</v>
+        <v>26299</v>
       </c>
       <c r="B146" t="n">
-        <v>177.7</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>37288</v>
+        <v>26330</v>
       </c>
       <c r="B147" t="n">
-        <v>178</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>37316</v>
+        <v>26359</v>
       </c>
       <c r="B148" t="n">
-        <v>178.5</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>37347</v>
+        <v>26390</v>
       </c>
       <c r="B149" t="n">
-        <v>179.3</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>37377</v>
+        <v>26420</v>
       </c>
       <c r="B150" t="n">
-        <v>179.5</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>37408</v>
+        <v>26451</v>
       </c>
       <c r="B151" t="n">
-        <v>179.6</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>37438</v>
+        <v>26481</v>
       </c>
       <c r="B152" t="n">
-        <v>180</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>37469</v>
+        <v>26512</v>
       </c>
       <c r="B153" t="n">
-        <v>180.5</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>37500</v>
+        <v>26543</v>
       </c>
       <c r="B154" t="n">
-        <v>180.8</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>37530</v>
+        <v>26573</v>
       </c>
       <c r="B155" t="n">
-        <v>181.2</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>37561</v>
+        <v>26604</v>
       </c>
       <c r="B156" t="n">
-        <v>181.5</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>37591</v>
+        <v>26634</v>
       </c>
       <c r="B157" t="n">
-        <v>181.8</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>37622</v>
+        <v>26665</v>
       </c>
       <c r="B158" t="n">
-        <v>182.6</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>37653</v>
+        <v>26696</v>
       </c>
       <c r="B159" t="n">
-        <v>183.6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>37681</v>
+        <v>26724</v>
       </c>
       <c r="B160" t="n">
-        <v>183.9</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>37712</v>
+        <v>26755</v>
       </c>
       <c r="B161" t="n">
-        <v>183.2</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>37742</v>
+        <v>26785</v>
       </c>
       <c r="B162" t="n">
-        <v>182.9</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>37773</v>
+        <v>26816</v>
       </c>
       <c r="B163" t="n">
-        <v>183.1</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>37803</v>
+        <v>26846</v>
       </c>
       <c r="B164" t="n">
-        <v>183.7</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>37834</v>
+        <v>26877</v>
       </c>
       <c r="B165" t="n">
-        <v>184.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>37865</v>
+        <v>26908</v>
       </c>
       <c r="B166" t="n">
-        <v>185.1</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>37895</v>
+        <v>26938</v>
       </c>
       <c r="B167" t="n">
-        <v>184.9</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>37926</v>
+        <v>26969</v>
       </c>
       <c r="B168" t="n">
-        <v>185</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>37956</v>
+        <v>26999</v>
       </c>
       <c r="B169" t="n">
-        <v>185.5</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>37987</v>
+        <v>27030</v>
       </c>
       <c r="B170" t="n">
-        <v>186.3</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>38018</v>
+        <v>27061</v>
       </c>
       <c r="B171" t="n">
-        <v>186.7</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>38047</v>
+        <v>27089</v>
       </c>
       <c r="B172" t="n">
-        <v>187.1</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>38078</v>
+        <v>27120</v>
       </c>
       <c r="B173" t="n">
-        <v>187.4</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>38108</v>
+        <v>27150</v>
       </c>
       <c r="B174" t="n">
-        <v>188.2</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>38139</v>
+        <v>27181</v>
       </c>
       <c r="B175" t="n">
-        <v>188.9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>38169</v>
+        <v>27211</v>
       </c>
       <c r="B176" t="n">
-        <v>189.1</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>38200</v>
+        <v>27242</v>
       </c>
       <c r="B177" t="n">
-        <v>189.2</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>38231</v>
+        <v>27273</v>
       </c>
       <c r="B178" t="n">
-        <v>189.8</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>38261</v>
+        <v>27303</v>
       </c>
       <c r="B179" t="n">
-        <v>190.8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>38292</v>
+        <v>27334</v>
       </c>
       <c r="B180" t="n">
-        <v>191.7</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>38322</v>
+        <v>27364</v>
       </c>
       <c r="B181" t="n">
-        <v>191.7</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>38353</v>
+        <v>27395</v>
       </c>
       <c r="B182" t="n">
-        <v>191.6</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>38384</v>
+        <v>27426</v>
       </c>
       <c r="B183" t="n">
-        <v>192.4</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>38412</v>
+        <v>27454</v>
       </c>
       <c r="B184" t="n">
-        <v>193.1</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>38443</v>
+        <v>27485</v>
       </c>
       <c r="B185" t="n">
-        <v>193.7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>38473</v>
+        <v>27515</v>
       </c>
       <c r="B186" t="n">
-        <v>193.6</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>38504</v>
+        <v>27546</v>
       </c>
       <c r="B187" t="n">
-        <v>193.7</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>38534</v>
+        <v>27576</v>
       </c>
       <c r="B188" t="n">
-        <v>194.9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>38565</v>
+        <v>27607</v>
       </c>
       <c r="B189" t="n">
-        <v>196.1</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>38596</v>
+        <v>27638</v>
       </c>
       <c r="B190" t="n">
-        <v>198.8</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>38626</v>
+        <v>27668</v>
       </c>
       <c r="B191" t="n">
-        <v>199.1</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>38657</v>
+        <v>27699</v>
       </c>
       <c r="B192" t="n">
-        <v>198.1</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>38687</v>
+        <v>27729</v>
       </c>
       <c r="B193" t="n">
-        <v>198.1</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>38718</v>
+        <v>27760</v>
       </c>
       <c r="B194" t="n">
-        <v>199.3</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>38749</v>
+        <v>27791</v>
       </c>
       <c r="B195" t="n">
-        <v>199.4</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>38777</v>
+        <v>27820</v>
       </c>
       <c r="B196" t="n">
-        <v>199.7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>38808</v>
+        <v>27851</v>
       </c>
       <c r="B197" t="n">
-        <v>200.7</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>38838</v>
+        <v>27881</v>
       </c>
       <c r="B198" t="n">
-        <v>201.3</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>38869</v>
+        <v>27912</v>
       </c>
       <c r="B199" t="n">
-        <v>201.8</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>38899</v>
+        <v>27942</v>
       </c>
       <c r="B200" t="n">
-        <v>202.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>38930</v>
+        <v>27973</v>
       </c>
       <c r="B201" t="n">
-        <v>203.8</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>38961</v>
+        <v>28004</v>
       </c>
       <c r="B202" t="n">
-        <v>202.8</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>38991</v>
+        <v>28034</v>
       </c>
       <c r="B203" t="n">
-        <v>201.9</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>39022</v>
+        <v>28065</v>
       </c>
       <c r="B204" t="n">
-        <v>202</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>39052</v>
+        <v>28095</v>
       </c>
       <c r="B205" t="n">
-        <v>203.1</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>39083</v>
+        <v>28126</v>
       </c>
       <c r="B206" t="n">
-        <v>203.437</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>39114</v>
+        <v>28157</v>
       </c>
       <c r="B207" t="n">
-        <v>204.226</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>39142</v>
+        <v>28185</v>
       </c>
       <c r="B208" t="n">
-        <v>205.288</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>39173</v>
+        <v>28216</v>
       </c>
       <c r="B209" t="n">
-        <v>205.904</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>39203</v>
+        <v>28246</v>
       </c>
       <c r="B210" t="n">
-        <v>206.755</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>39234</v>
+        <v>28277</v>
       </c>
       <c r="B211" t="n">
-        <v>207.234</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>39264</v>
+        <v>28307</v>
       </c>
       <c r="B212" t="n">
-        <v>207.603</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>39295</v>
+        <v>28338</v>
       </c>
       <c r="B213" t="n">
-        <v>207.667</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>39326</v>
+        <v>28369</v>
       </c>
       <c r="B214" t="n">
-        <v>208.547</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>39356</v>
+        <v>28399</v>
       </c>
       <c r="B215" t="n">
-        <v>209.19</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>39387</v>
+        <v>28430</v>
       </c>
       <c r="B216" t="n">
-        <v>210.834</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>39417</v>
+        <v>28460</v>
       </c>
       <c r="B217" t="n">
-        <v>211.445</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>39448</v>
+        <v>28491</v>
       </c>
       <c r="B218" t="n">
-        <v>212.174</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>39479</v>
+        <v>28522</v>
       </c>
       <c r="B219" t="n">
-        <v>212.687</v>
+        <v>63</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>39508</v>
+        <v>28550</v>
       </c>
       <c r="B220" t="n">
-        <v>213.448</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>39539</v>
+        <v>28581</v>
       </c>
       <c r="B221" t="n">
-        <v>213.942</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>39569</v>
+        <v>28611</v>
       </c>
       <c r="B222" t="n">
-        <v>215.208</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>39600</v>
+        <v>28642</v>
       </c>
       <c r="B223" t="n">
-        <v>217.463</v>
+        <v>65</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>39630</v>
+        <v>28672</v>
       </c>
       <c r="B224" t="n">
-        <v>219.016</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>39661</v>
+        <v>28703</v>
       </c>
       <c r="B225" t="n">
-        <v>218.69</v>
+        <v>65.90000000000001</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>39692</v>
+        <v>28734</v>
       </c>
       <c r="B226" t="n">
-        <v>218.877</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>39722</v>
+        <v>28764</v>
       </c>
       <c r="B227" t="n">
-        <v>216.995</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>39753</v>
+        <v>28795</v>
       </c>
       <c r="B228" t="n">
-        <v>213.153</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>39783</v>
+        <v>28825</v>
       </c>
       <c r="B229" t="n">
-        <v>211.398</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>39814</v>
+        <v>28856</v>
       </c>
       <c r="B230" t="n">
-        <v>211.933</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>39845</v>
+        <v>28887</v>
       </c>
       <c r="B231" t="n">
-        <v>212.705</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>39873</v>
+        <v>28915</v>
       </c>
       <c r="B232" t="n">
-        <v>212.495</v>
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>39904</v>
+        <v>28946</v>
       </c>
       <c r="B233" t="n">
-        <v>212.709</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>39934</v>
+        <v>28976</v>
       </c>
       <c r="B234" t="n">
-        <v>213.022</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>39965</v>
+        <v>29007</v>
       </c>
       <c r="B235" t="n">
-        <v>214.79</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>39995</v>
+        <v>29037</v>
       </c>
       <c r="B236" t="n">
-        <v>214.726</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>40026</v>
+        <v>29068</v>
       </c>
       <c r="B237" t="n">
-        <v>215.445</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>40057</v>
+        <v>29099</v>
       </c>
       <c r="B238" t="n">
-        <v>215.861</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>40087</v>
+        <v>29129</v>
       </c>
       <c r="B239" t="n">
-        <v>216.509</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>40118</v>
+        <v>29160</v>
       </c>
       <c r="B240" t="n">
-        <v>217.234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>40148</v>
+        <v>29190</v>
       </c>
       <c r="B241" t="n">
-        <v>217.347</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>40179</v>
+        <v>29221</v>
       </c>
       <c r="B242" t="n">
-        <v>217.488</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>40210</v>
+        <v>29252</v>
       </c>
       <c r="B243" t="n">
-        <v>217.281</v>
+        <v>79</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>40238</v>
+        <v>29281</v>
       </c>
       <c r="B244" t="n">
-        <v>217.353</v>
+        <v>80.09999999999999</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>40269</v>
+        <v>29312</v>
       </c>
       <c r="B245" t="n">
-        <v>217.403</v>
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>40299</v>
+        <v>29342</v>
       </c>
       <c r="B246" t="n">
-        <v>217.29</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>40330</v>
+        <v>29373</v>
       </c>
       <c r="B247" t="n">
-        <v>217.199</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>40360</v>
+        <v>29403</v>
       </c>
       <c r="B248" t="n">
-        <v>217.605</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>40391</v>
+        <v>29434</v>
       </c>
       <c r="B249" t="n">
-        <v>217.923</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>40422</v>
+        <v>29465</v>
       </c>
       <c r="B250" t="n">
-        <v>218.275</v>
+        <v>83.90000000000001</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>40452</v>
+        <v>29495</v>
       </c>
       <c r="B251" t="n">
-        <v>219.035</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>40483</v>
+        <v>29526</v>
       </c>
       <c r="B252" t="n">
-        <v>219.59</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>40513</v>
+        <v>29556</v>
       </c>
       <c r="B253" t="n">
-        <v>220.472</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>40544</v>
+        <v>29587</v>
       </c>
       <c r="B254" t="n">
-        <v>221.187</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>40575</v>
+        <v>29618</v>
       </c>
       <c r="B255" t="n">
-        <v>221.898</v>
+        <v>88</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>40603</v>
+        <v>29646</v>
       </c>
       <c r="B256" t="n">
-        <v>223.046</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>40634</v>
+        <v>29677</v>
       </c>
       <c r="B257" t="n">
-        <v>224.093</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>40664</v>
+        <v>29707</v>
       </c>
       <c r="B258" t="n">
-        <v>224.806</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>40695</v>
+        <v>29738</v>
       </c>
       <c r="B259" t="n">
-        <v>224.806</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>40725</v>
+        <v>29768</v>
       </c>
       <c r="B260" t="n">
-        <v>225.395</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>40756</v>
+        <v>29799</v>
       </c>
       <c r="B261" t="n">
-        <v>226.106</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>40787</v>
+        <v>29830</v>
       </c>
       <c r="B262" t="n">
-        <v>226.597</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>40817</v>
+        <v>29860</v>
       </c>
       <c r="B263" t="n">
-        <v>226.75</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>40848</v>
+        <v>29891</v>
       </c>
       <c r="B264" t="n">
-        <v>227.169</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>40878</v>
+        <v>29921</v>
       </c>
       <c r="B265" t="n">
-        <v>227.223</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>40909</v>
+        <v>29952</v>
       </c>
       <c r="B266" t="n">
-        <v>227.842</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>40940</v>
+        <v>29983</v>
       </c>
       <c r="B267" t="n">
-        <v>228.329</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>40969</v>
+        <v>30011</v>
       </c>
       <c r="B268" t="n">
-        <v>228.807</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>41000</v>
+        <v>30042</v>
       </c>
       <c r="B269" t="n">
-        <v>229.187</v>
+        <v>95</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>41030</v>
+        <v>30072</v>
       </c>
       <c r="B270" t="n">
-        <v>228.713</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>41061</v>
+        <v>30103</v>
       </c>
       <c r="B271" t="n">
-        <v>228.524</v>
+        <v>97</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>41091</v>
+        <v>30133</v>
       </c>
       <c r="B272" t="n">
-        <v>228.59</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>41122</v>
+        <v>30164</v>
       </c>
       <c r="B273" t="n">
-        <v>229.918</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>41153</v>
+        <v>30195</v>
       </c>
       <c r="B274" t="n">
-        <v>231.015</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>41183</v>
+        <v>30225</v>
       </c>
       <c r="B275" t="n">
-        <v>231.638</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>41214</v>
+        <v>30256</v>
       </c>
       <c r="B276" t="n">
-        <v>231.249</v>
+        <v>98</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>41244</v>
+        <v>30286</v>
       </c>
       <c r="B277" t="n">
-        <v>231.221</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>41275</v>
+        <v>30317</v>
       </c>
       <c r="B278" t="n">
-        <v>231.679</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>41306</v>
+        <v>30348</v>
       </c>
       <c r="B279" t="n">
-        <v>232.937</v>
+        <v>98</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>41334</v>
+        <v>30376</v>
       </c>
       <c r="B280" t="n">
-        <v>232.282</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>41365</v>
+        <v>30407</v>
       </c>
       <c r="B281" t="n">
-        <v>231.797</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
-        <v>41395</v>
+        <v>30437</v>
       </c>
       <c r="B282" t="n">
-        <v>231.893</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="3" t="n">
-        <v>41426</v>
+        <v>30468</v>
       </c>
       <c r="B283" t="n">
-        <v>232.445</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="n">
-        <v>41456</v>
+        <v>30498</v>
       </c>
       <c r="B284" t="n">
-        <v>232.9</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="3" t="n">
-        <v>41487</v>
+        <v>30529</v>
       </c>
       <c r="B285" t="n">
-        <v>233.456</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="n">
-        <v>41518</v>
+        <v>30560</v>
       </c>
       <c r="B286" t="n">
-        <v>233.544</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="3" t="n">
-        <v>41548</v>
+        <v>30590</v>
       </c>
       <c r="B287" t="n">
-        <v>233.669</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="n">
-        <v>41579</v>
+        <v>30621</v>
       </c>
       <c r="B288" t="n">
-        <v>234.1</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="3" t="n">
-        <v>41609</v>
+        <v>30651</v>
       </c>
       <c r="B289" t="n">
-        <v>234.719</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="n">
-        <v>41640</v>
+        <v>30682</v>
       </c>
       <c r="B290" t="n">
-        <v>235.288</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="3" t="n">
-        <v>41671</v>
+        <v>30713</v>
       </c>
       <c r="B291" t="n">
-        <v>235.547</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="n">
-        <v>41699</v>
+        <v>30742</v>
       </c>
       <c r="B292" t="n">
-        <v>236.028</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="3" t="n">
-        <v>41730</v>
+        <v>30773</v>
       </c>
       <c r="B293" t="n">
-        <v>236.468</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="n">
-        <v>41760</v>
+        <v>30803</v>
       </c>
       <c r="B294" t="n">
-        <v>236.918</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="3" t="n">
-        <v>41791</v>
+        <v>30834</v>
       </c>
       <c r="B295" t="n">
-        <v>237.231</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="n">
-        <v>41821</v>
+        <v>30864</v>
       </c>
       <c r="B296" t="n">
-        <v>237.498</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="3" t="n">
-        <v>41852</v>
+        <v>30895</v>
       </c>
       <c r="B297" t="n">
-        <v>237.46</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="n">
-        <v>41883</v>
+        <v>30926</v>
       </c>
       <c r="B298" t="n">
-        <v>237.477</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="3" t="n">
-        <v>41913</v>
+        <v>30956</v>
       </c>
       <c r="B299" t="n">
-        <v>237.43</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="n">
-        <v>41944</v>
+        <v>30987</v>
       </c>
       <c r="B300" t="n">
-        <v>236.983</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="3" t="n">
-        <v>41974</v>
+        <v>31017</v>
       </c>
       <c r="B301" t="n">
-        <v>236.252</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="n">
-        <v>42005</v>
+        <v>31048</v>
       </c>
       <c r="B302" t="n">
-        <v>234.747</v>
+        <v>105.7</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="3" t="n">
-        <v>42036</v>
+        <v>31079</v>
       </c>
       <c r="B303" t="n">
-        <v>235.342</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="n">
-        <v>42064</v>
+        <v>31107</v>
       </c>
       <c r="B304" t="n">
-        <v>235.976</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="3" t="n">
-        <v>42095</v>
+        <v>31138</v>
       </c>
       <c r="B305" t="n">
-        <v>236.222</v>
+        <v>107</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="n">
-        <v>42125</v>
+        <v>31168</v>
       </c>
       <c r="B306" t="n">
-        <v>237.001</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="n">
-        <v>42156</v>
+        <v>31199</v>
       </c>
       <c r="B307" t="n">
-        <v>237.657</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="n">
-        <v>42186</v>
+        <v>31229</v>
       </c>
       <c r="B308" t="n">
-        <v>238.034</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="3" t="n">
-        <v>42217</v>
+        <v>31260</v>
       </c>
       <c r="B309" t="n">
-        <v>238.033</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="3" t="n">
-        <v>42248</v>
+        <v>31291</v>
       </c>
       <c r="B310" t="n">
-        <v>237.498</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3" t="n">
-        <v>42278</v>
+        <v>31321</v>
       </c>
       <c r="B311" t="n">
-        <v>237.733</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3" t="n">
-        <v>42309</v>
+        <v>31352</v>
       </c>
       <c r="B312" t="n">
-        <v>238.017</v>
+        <v>109</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="3" t="n">
-        <v>42339</v>
+        <v>31382</v>
       </c>
       <c r="B313" t="n">
-        <v>237.761</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3" t="n">
-        <v>42370</v>
+        <v>31413</v>
       </c>
       <c r="B314" t="n">
-        <v>237.652</v>
+        <v>109.9</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="3" t="n">
-        <v>42401</v>
+        <v>31444</v>
       </c>
       <c r="B315" t="n">
-        <v>237.336</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="3" t="n">
-        <v>42430</v>
+        <v>31472</v>
       </c>
       <c r="B316" t="n">
-        <v>238.08</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="3" t="n">
-        <v>42461</v>
+        <v>31503</v>
       </c>
       <c r="B317" t="n">
-        <v>238.992</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="n">
-        <v>42491</v>
+        <v>31533</v>
       </c>
       <c r="B318" t="n">
-        <v>239.557</v>
+        <v>109</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="3" t="n">
-        <v>42522</v>
+        <v>31564</v>
       </c>
       <c r="B319" t="n">
-        <v>240.222</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="3" t="n">
-        <v>42552</v>
+        <v>31594</v>
       </c>
       <c r="B320" t="n">
-        <v>240.101</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="3" t="n">
-        <v>42583</v>
+        <v>31625</v>
       </c>
       <c r="B321" t="n">
-        <v>240.545</v>
+        <v>109.6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="3" t="n">
-        <v>42614</v>
+        <v>31656</v>
       </c>
       <c r="B322" t="n">
-        <v>241.176</v>
+        <v>110</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="3" t="n">
-        <v>42644</v>
+        <v>31686</v>
       </c>
       <c r="B323" t="n">
-        <v>241.741</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="3" t="n">
-        <v>42675</v>
+        <v>31717</v>
       </c>
       <c r="B324" t="n">
-        <v>242.026</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="3" t="n">
-        <v>42705</v>
+        <v>31747</v>
       </c>
       <c r="B325" t="n">
-        <v>242.637</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="3" t="n">
-        <v>42736</v>
+        <v>31778</v>
       </c>
       <c r="B326" t="n">
-        <v>243.618</v>
+        <v>111.4</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="3" t="n">
-        <v>42767</v>
+        <v>31809</v>
       </c>
       <c r="B327" t="n">
-        <v>244.006</v>
+        <v>111.8</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="3" t="n">
-        <v>42795</v>
+        <v>31837</v>
       </c>
       <c r="B328" t="n">
-        <v>243.892</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="3" t="n">
-        <v>42826</v>
+        <v>31868</v>
       </c>
       <c r="B329" t="n">
-        <v>244.193</v>
+        <v>112.7</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="3" t="n">
-        <v>42856</v>
+        <v>31898</v>
       </c>
       <c r="B330" t="n">
-        <v>244.004</v>
+        <v>113</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="3" t="n">
-        <v>42887</v>
+        <v>31929</v>
       </c>
       <c r="B331" t="n">
-        <v>244.163</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="3" t="n">
-        <v>42917</v>
+        <v>31959</v>
       </c>
       <c r="B332" t="n">
-        <v>244.243</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="3" t="n">
-        <v>42948</v>
+        <v>31990</v>
       </c>
       <c r="B333" t="n">
-        <v>245.183</v>
+        <v>114.3</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="3" t="n">
-        <v>42979</v>
+        <v>32021</v>
       </c>
       <c r="B334" t="n">
-        <v>246.435</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="3" t="n">
-        <v>43009</v>
+        <v>32051</v>
       </c>
       <c r="B335" t="n">
-        <v>246.626</v>
+        <v>115</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="3" t="n">
-        <v>43040</v>
+        <v>32082</v>
       </c>
       <c r="B336" t="n">
-        <v>247.284</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="3" t="n">
-        <v>43070</v>
+        <v>32112</v>
       </c>
       <c r="B337" t="n">
-        <v>247.805</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="3" t="n">
-        <v>43101</v>
+        <v>32143</v>
       </c>
       <c r="B338" t="n">
-        <v>248.859</v>
+        <v>116</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="3" t="n">
-        <v>43132</v>
+        <v>32174</v>
       </c>
       <c r="B339" t="n">
-        <v>249.529</v>
+        <v>116.2</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="3" t="n">
-        <v>43160</v>
+        <v>32203</v>
       </c>
       <c r="B340" t="n">
-        <v>249.577</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="3" t="n">
-        <v>43191</v>
+        <v>32234</v>
       </c>
       <c r="B341" t="n">
-        <v>250.227</v>
+        <v>117.2</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="3" t="n">
-        <v>43221</v>
+        <v>32264</v>
       </c>
       <c r="B342" t="n">
-        <v>250.792</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="3" t="n">
-        <v>43252</v>
+        <v>32295</v>
       </c>
       <c r="B343" t="n">
-        <v>251.018</v>
+        <v>118</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="3" t="n">
-        <v>43282</v>
+        <v>32325</v>
       </c>
       <c r="B344" t="n">
-        <v>251.214</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="3" t="n">
-        <v>43313</v>
+        <v>32356</v>
       </c>
       <c r="B345" t="n">
-        <v>251.663</v>
+        <v>119</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="3" t="n">
-        <v>43344</v>
+        <v>32387</v>
       </c>
       <c r="B346" t="n">
-        <v>252.182</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="3" t="n">
-        <v>43374</v>
+        <v>32417</v>
       </c>
       <c r="B347" t="n">
-        <v>252.772</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="3" t="n">
-        <v>43405</v>
+        <v>32448</v>
       </c>
       <c r="B348" t="n">
-        <v>252.594</v>
+        <v>120.3</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="3" t="n">
-        <v>43435</v>
+        <v>32478</v>
       </c>
       <c r="B349" t="n">
-        <v>252.767</v>
+        <v>120.7</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="3" t="n">
-        <v>43466</v>
+        <v>32509</v>
       </c>
       <c r="B350" t="n">
-        <v>252.561</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="3" t="n">
-        <v>43497</v>
+        <v>32540</v>
       </c>
       <c r="B351" t="n">
-        <v>253.319</v>
+        <v>121.6</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="3" t="n">
-        <v>43525</v>
+        <v>32568</v>
       </c>
       <c r="B352" t="n">
-        <v>254.277</v>
+        <v>122.2</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="3" t="n">
-        <v>43556</v>
+        <v>32599</v>
       </c>
       <c r="B353" t="n">
-        <v>255.233</v>
+        <v>123.1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="3" t="n">
-        <v>43586</v>
+        <v>32629</v>
       </c>
       <c r="B354" t="n">
-        <v>255.296</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="3" t="n">
-        <v>43617</v>
+        <v>32660</v>
       </c>
       <c r="B355" t="n">
-        <v>255.213</v>
+        <v>124.1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="3" t="n">
-        <v>43647</v>
+        <v>32690</v>
       </c>
       <c r="B356" t="n">
-        <v>255.802</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="3" t="n">
-        <v>43678</v>
+        <v>32721</v>
       </c>
       <c r="B357" t="n">
-        <v>256.036</v>
+        <v>124.5</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="3" t="n">
-        <v>43709</v>
+        <v>32752</v>
       </c>
       <c r="B358" t="n">
-        <v>256.43</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="3" t="n">
-        <v>43739</v>
+        <v>32782</v>
       </c>
       <c r="B359" t="n">
-        <v>257.155</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="3" t="n">
-        <v>43770</v>
+        <v>32813</v>
       </c>
       <c r="B360" t="n">
-        <v>257.879</v>
+        <v>125.9</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="3" t="n">
-        <v>43800</v>
+        <v>32843</v>
       </c>
       <c r="B361" t="n">
-        <v>258.63</v>
+        <v>126.3</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="3" t="n">
-        <v>43831</v>
+        <v>32874</v>
       </c>
       <c r="B362" t="n">
-        <v>258.906</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="3" t="n">
-        <v>43862</v>
+        <v>32905</v>
       </c>
       <c r="B363" t="n">
-        <v>259.246</v>
+        <v>128</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="3" t="n">
-        <v>43891</v>
+        <v>32933</v>
       </c>
       <c r="B364" t="n">
-        <v>258.15</v>
+        <v>128.6</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="3" t="n">
-        <v>43922</v>
+        <v>32964</v>
       </c>
       <c r="B365" t="n">
-        <v>256.126</v>
+        <v>128.9</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="3" t="n">
-        <v>43952</v>
+        <v>32994</v>
       </c>
       <c r="B366" t="n">
-        <v>255.848</v>
+        <v>129.1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="3" t="n">
-        <v>43983</v>
+        <v>33025</v>
       </c>
       <c r="B367" t="n">
-        <v>257.004</v>
+        <v>129.9</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="3" t="n">
-        <v>44013</v>
+        <v>33055</v>
       </c>
       <c r="B368" t="n">
-        <v>258.408</v>
+        <v>130.5</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="3" t="n">
-        <v>44044</v>
+        <v>33086</v>
       </c>
       <c r="B369" t="n">
-        <v>259.366</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="3" t="n">
-        <v>44075</v>
+        <v>33117</v>
       </c>
       <c r="B370" t="n">
-        <v>259.951</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="3" t="n">
-        <v>44105</v>
+        <v>33147</v>
       </c>
       <c r="B371" t="n">
-        <v>260.249</v>
+        <v>133.4</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="3" t="n">
-        <v>44136</v>
+        <v>33178</v>
       </c>
       <c r="B372" t="n">
-        <v>260.895</v>
+        <v>133.7</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="3" t="n">
-        <v>44166</v>
+        <v>33208</v>
       </c>
       <c r="B373" t="n">
-        <v>262.005</v>
+        <v>134.2</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="3" t="n">
-        <v>44197</v>
+        <v>33239</v>
       </c>
       <c r="B374" t="n">
-        <v>262.518</v>
+        <v>134.7</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="3" t="n">
-        <v>44228</v>
+        <v>33270</v>
       </c>
       <c r="B375" t="n">
-        <v>263.583</v>
+        <v>134.8</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="3" t="n">
-        <v>44256</v>
+        <v>33298</v>
       </c>
       <c r="B376" t="n">
-        <v>264.91</v>
+        <v>134.8</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="3" t="n">
-        <v>44287</v>
+        <v>33329</v>
       </c>
       <c r="B377" t="n">
-        <v>266.752</v>
+        <v>135.1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="3" t="n">
-        <v>44317</v>
+        <v>33359</v>
       </c>
       <c r="B378" t="n">
-        <v>268.452</v>
+        <v>135.6</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="3" t="n">
-        <v>44348</v>
+        <v>33390</v>
       </c>
       <c r="B379" t="n">
-        <v>270.664</v>
+        <v>136</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="3" t="n">
-        <v>44378</v>
+        <v>33420</v>
       </c>
       <c r="B380" t="n">
-        <v>271.994</v>
+        <v>136.2</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="3" t="n">
-        <v>44409</v>
+        <v>33451</v>
       </c>
       <c r="B381" t="n">
-        <v>272.789</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="3" t="n">
-        <v>44440</v>
+        <v>33482</v>
       </c>
       <c r="B382" t="n">
-        <v>273.887</v>
+        <v>137</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="3" t="n">
-        <v>44470</v>
+        <v>33512</v>
       </c>
       <c r="B383" t="n">
-        <v>276.434</v>
+        <v>137.2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="3" t="n">
-        <v>44501</v>
+        <v>33543</v>
       </c>
       <c r="B384" t="n">
-        <v>278.799</v>
+        <v>137.8</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="3" t="n">
-        <v>44531</v>
+        <v>33573</v>
       </c>
       <c r="B385" t="n">
-        <v>280.808</v>
+        <v>138.2</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="3" t="n">
-        <v>44562</v>
+        <v>33604</v>
       </c>
       <c r="B386" t="n">
-        <v>282.39</v>
+        <v>138.3</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="3" t="n">
-        <v>44593</v>
+        <v>33635</v>
       </c>
       <c r="B387" t="n">
-        <v>284.535</v>
+        <v>138.6</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="3" t="n">
-        <v>44621</v>
+        <v>33664</v>
       </c>
       <c r="B388" t="n">
-        <v>287.553</v>
+        <v>139.1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="3" t="n">
-        <v>44652</v>
+        <v>33695</v>
       </c>
       <c r="B389" t="n">
-        <v>288.764</v>
+        <v>139.4</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="3" t="n">
-        <v>44682</v>
+        <v>33725</v>
       </c>
       <c r="B390" t="n">
-        <v>291.359</v>
+        <v>139.7</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="3" t="n">
-        <v>44713</v>
+        <v>33756</v>
       </c>
       <c r="B391" t="n">
-        <v>294.996</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="3" t="n">
-        <v>44743</v>
+        <v>33786</v>
       </c>
       <c r="B392" t="n">
-        <v>294.977</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="3" t="n">
-        <v>44774</v>
+        <v>33817</v>
       </c>
       <c r="B393" t="n">
-        <v>295.209</v>
+        <v>140.8</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="3" t="n">
-        <v>44805</v>
+        <v>33848</v>
       </c>
       <c r="B394" t="n">
-        <v>296.341</v>
+        <v>141.1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="3" t="n">
-        <v>44835</v>
+        <v>33878</v>
       </c>
       <c r="B395" t="n">
-        <v>297.863</v>
+        <v>141.7</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="3" t="n">
-        <v>44866</v>
+        <v>33909</v>
       </c>
       <c r="B396" t="n">
-        <v>298.648</v>
+        <v>142.1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="3" t="n">
-        <v>44896</v>
+        <v>33939</v>
       </c>
       <c r="B397" t="n">
-        <v>298.812</v>
+        <v>142.3</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="3" t="n">
-        <v>44927</v>
+        <v>33970</v>
       </c>
       <c r="B398" t="n">
-        <v>300.356</v>
+        <v>142.8</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="3" t="n">
-        <v>44958</v>
+        <v>34001</v>
       </c>
       <c r="B399" t="n">
-        <v>301.509</v>
+        <v>143.1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="3" t="n">
-        <v>44986</v>
+        <v>34029</v>
       </c>
       <c r="B400" t="n">
-        <v>301.744</v>
+        <v>143.3</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="3" t="n">
-        <v>45017</v>
+        <v>34060</v>
       </c>
       <c r="B401" t="n">
-        <v>303.032</v>
+        <v>143.8</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="3" t="n">
-        <v>45047</v>
+        <v>34090</v>
       </c>
       <c r="B402" t="n">
-        <v>303.365</v>
+        <v>144.2</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="3" t="n">
-        <v>45078</v>
+        <v>34121</v>
       </c>
       <c r="B403" t="n">
-        <v>304.003</v>
+        <v>144.3</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="3" t="n">
-        <v>45108</v>
+        <v>34151</v>
       </c>
       <c r="B404" t="n">
-        <v>304.628</v>
+        <v>144.5</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="3" t="n">
-        <v>45139</v>
+        <v>34182</v>
       </c>
       <c r="B405" t="n">
-        <v>306.187</v>
+        <v>144.8</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="3" t="n">
-        <v>45170</v>
+        <v>34213</v>
       </c>
       <c r="B406" t="n">
-        <v>307.288</v>
+        <v>145</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="3" t="n">
-        <v>45200</v>
+        <v>34243</v>
       </c>
       <c r="B407" t="n">
-        <v>307.531</v>
+        <v>145.6</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="3" t="n">
-        <v>45231</v>
+        <v>34274</v>
       </c>
       <c r="B408" t="n">
-        <v>308.024</v>
+        <v>146</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="3" t="n">
-        <v>45261</v>
+        <v>34304</v>
       </c>
       <c r="B409" t="n">
-        <v>308.742</v>
+        <v>146.3</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="3" t="n">
-        <v>45292</v>
+        <v>34335</v>
       </c>
       <c r="B410" t="n">
-        <v>309.685</v>
+        <v>146.3</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="3" t="n">
-        <v>45323</v>
+        <v>34366</v>
       </c>
       <c r="B411" t="n">
-        <v>311.054</v>
+        <v>146.7</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="3" t="n">
+        <v>34394</v>
+      </c>
+      <c r="B412" t="n">
+        <v>147.1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="3" t="n">
+        <v>34425</v>
+      </c>
+      <c r="B413" t="n">
+        <v>147.2</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="3" t="n">
+        <v>34455</v>
+      </c>
+      <c r="B414" t="n">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="3" t="n">
+        <v>34486</v>
+      </c>
+      <c r="B415" t="n">
+        <v>147.9</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="3" t="n">
+        <v>34516</v>
+      </c>
+      <c r="B416" t="n">
+        <v>148.4</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="3" t="n">
+        <v>34547</v>
+      </c>
+      <c r="B417" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="3" t="n">
+        <v>34578</v>
+      </c>
+      <c r="B418" t="n">
+        <v>149.3</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="3" t="n">
+        <v>34608</v>
+      </c>
+      <c r="B419" t="n">
+        <v>149.4</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="3" t="n">
+        <v>34639</v>
+      </c>
+      <c r="B420" t="n">
+        <v>149.8</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="3" t="n">
+        <v>34669</v>
+      </c>
+      <c r="B421" t="n">
+        <v>150.1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="3" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B422" t="n">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="3" t="n">
+        <v>34731</v>
+      </c>
+      <c r="B423" t="n">
+        <v>150.9</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="3" t="n">
+        <v>34759</v>
+      </c>
+      <c r="B424" t="n">
+        <v>151.2</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="3" t="n">
+        <v>34790</v>
+      </c>
+      <c r="B425" t="n">
+        <v>151.8</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="3" t="n">
+        <v>34820</v>
+      </c>
+      <c r="B426" t="n">
+        <v>152.1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="3" t="n">
+        <v>34851</v>
+      </c>
+      <c r="B427" t="n">
+        <v>152.4</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="3" t="n">
+        <v>34881</v>
+      </c>
+      <c r="B428" t="n">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="3" t="n">
+        <v>34912</v>
+      </c>
+      <c r="B429" t="n">
+        <v>152.9</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="3" t="n">
+        <v>34943</v>
+      </c>
+      <c r="B430" t="n">
+        <v>153.1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="3" t="n">
+        <v>34973</v>
+      </c>
+      <c r="B431" t="n">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="3" t="n">
+        <v>35004</v>
+      </c>
+      <c r="B432" t="n">
+        <v>153.7</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="3" t="n">
+        <v>35034</v>
+      </c>
+      <c r="B433" t="n">
+        <v>153.9</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="3" t="n">
+        <v>35065</v>
+      </c>
+      <c r="B434" t="n">
+        <v>154.7</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="3" t="n">
+        <v>35096</v>
+      </c>
+      <c r="B435" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="3" t="n">
+        <v>35125</v>
+      </c>
+      <c r="B436" t="n">
+        <v>155.5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="3" t="n">
+        <v>35156</v>
+      </c>
+      <c r="B437" t="n">
+        <v>156.1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="3" t="n">
+        <v>35186</v>
+      </c>
+      <c r="B438" t="n">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="3" t="n">
+        <v>35217</v>
+      </c>
+      <c r="B439" t="n">
+        <v>156.7</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="3" t="n">
+        <v>35247</v>
+      </c>
+      <c r="B440" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="3" t="n">
+        <v>35278</v>
+      </c>
+      <c r="B441" t="n">
+        <v>157.2</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="3" t="n">
+        <v>35309</v>
+      </c>
+      <c r="B442" t="n">
+        <v>157.7</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="3" t="n">
+        <v>35339</v>
+      </c>
+      <c r="B443" t="n">
+        <v>158.2</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="3" t="n">
+        <v>35370</v>
+      </c>
+      <c r="B444" t="n">
+        <v>158.7</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="3" t="n">
+        <v>35400</v>
+      </c>
+      <c r="B445" t="n">
+        <v>159.1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="3" t="n">
+        <v>35431</v>
+      </c>
+      <c r="B446" t="n">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="3" t="n">
+        <v>35462</v>
+      </c>
+      <c r="B447" t="n">
+        <v>159.7</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="3" t="n">
+        <v>35490</v>
+      </c>
+      <c r="B448" t="n">
+        <v>159.8</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="3" t="n">
+        <v>35521</v>
+      </c>
+      <c r="B449" t="n">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="3" t="n">
+        <v>35551</v>
+      </c>
+      <c r="B450" t="n">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="3" t="n">
+        <v>35582</v>
+      </c>
+      <c r="B451" t="n">
+        <v>160.2</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="3" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B452" t="n">
+        <v>160.4</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="3" t="n">
+        <v>35643</v>
+      </c>
+      <c r="B453" t="n">
+        <v>160.8</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="3" t="n">
+        <v>35674</v>
+      </c>
+      <c r="B454" t="n">
+        <v>161.2</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="3" t="n">
+        <v>35704</v>
+      </c>
+      <c r="B455" t="n">
+        <v>161.5</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="3" t="n">
+        <v>35735</v>
+      </c>
+      <c r="B456" t="n">
+        <v>161.7</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="3" t="n">
+        <v>35765</v>
+      </c>
+      <c r="B457" t="n">
+        <v>161.8</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="3" t="n">
+        <v>35796</v>
+      </c>
+      <c r="B458" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="3" t="n">
+        <v>35827</v>
+      </c>
+      <c r="B459" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="3" t="n">
+        <v>35855</v>
+      </c>
+      <c r="B460" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="3" t="n">
+        <v>35886</v>
+      </c>
+      <c r="B461" t="n">
+        <v>162.2</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="3" t="n">
+        <v>35916</v>
+      </c>
+      <c r="B462" t="n">
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="3" t="n">
+        <v>35947</v>
+      </c>
+      <c r="B463" t="n">
+        <v>162.8</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="3" t="n">
+        <v>35977</v>
+      </c>
+      <c r="B464" t="n">
+        <v>163.2</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="3" t="n">
+        <v>36008</v>
+      </c>
+      <c r="B465" t="n">
+        <v>163.4</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="3" t="n">
+        <v>36039</v>
+      </c>
+      <c r="B466" t="n">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="3" t="n">
+        <v>36069</v>
+      </c>
+      <c r="B467" t="n">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="3" t="n">
+        <v>36100</v>
+      </c>
+      <c r="B468" t="n">
+        <v>164.1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="3" t="n">
+        <v>36130</v>
+      </c>
+      <c r="B469" t="n">
+        <v>164.4</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="3" t="n">
+        <v>36161</v>
+      </c>
+      <c r="B470" t="n">
+        <v>164.7</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="3" t="n">
+        <v>36192</v>
+      </c>
+      <c r="B471" t="n">
+        <v>164.7</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="3" t="n">
+        <v>36220</v>
+      </c>
+      <c r="B472" t="n">
+        <v>164.8</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="3" t="n">
+        <v>36251</v>
+      </c>
+      <c r="B473" t="n">
+        <v>165.9</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="3" t="n">
+        <v>36281</v>
+      </c>
+      <c r="B474" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="3" t="n">
+        <v>36312</v>
+      </c>
+      <c r="B475" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="3" t="n">
+        <v>36342</v>
+      </c>
+      <c r="B476" t="n">
+        <v>166.7</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="3" t="n">
+        <v>36373</v>
+      </c>
+      <c r="B477" t="n">
+        <v>167.1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="3" t="n">
+        <v>36404</v>
+      </c>
+      <c r="B478" t="n">
+        <v>167.8</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="3" t="n">
+        <v>36434</v>
+      </c>
+      <c r="B479" t="n">
+        <v>168.1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="3" t="n">
+        <v>36465</v>
+      </c>
+      <c r="B480" t="n">
+        <v>168.4</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="3" t="n">
+        <v>36495</v>
+      </c>
+      <c r="B481" t="n">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="3" t="n">
+        <v>36526</v>
+      </c>
+      <c r="B482" t="n">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="3" t="n">
+        <v>36557</v>
+      </c>
+      <c r="B483" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="3" t="n">
+        <v>36586</v>
+      </c>
+      <c r="B484" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="3" t="n">
+        <v>36617</v>
+      </c>
+      <c r="B485" t="n">
+        <v>170.9</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="3" t="n">
+        <v>36647</v>
+      </c>
+      <c r="B486" t="n">
+        <v>171.2</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="3" t="n">
+        <v>36678</v>
+      </c>
+      <c r="B487" t="n">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="3" t="n">
+        <v>36708</v>
+      </c>
+      <c r="B488" t="n">
+        <v>172.7</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="3" t="n">
+        <v>36739</v>
+      </c>
+      <c r="B489" t="n">
+        <v>172.7</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="3" t="n">
+        <v>36770</v>
+      </c>
+      <c r="B490" t="n">
+        <v>173.6</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="3" t="n">
+        <v>36800</v>
+      </c>
+      <c r="B491" t="n">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="3" t="n">
+        <v>36831</v>
+      </c>
+      <c r="B492" t="n">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="3" t="n">
+        <v>36861</v>
+      </c>
+      <c r="B493" t="n">
+        <v>174.6</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="3" t="n">
+        <v>36892</v>
+      </c>
+      <c r="B494" t="n">
+        <v>175.6</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="3" t="n">
+        <v>36923</v>
+      </c>
+      <c r="B495" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="3" t="n">
+        <v>36951</v>
+      </c>
+      <c r="B496" t="n">
+        <v>176.1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="3" t="n">
+        <v>36982</v>
+      </c>
+      <c r="B497" t="n">
+        <v>176.4</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="3" t="n">
+        <v>37012</v>
+      </c>
+      <c r="B498" t="n">
+        <v>177.3</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="3" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B499" t="n">
+        <v>177.7</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="3" t="n">
+        <v>37073</v>
+      </c>
+      <c r="B500" t="n">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="3" t="n">
+        <v>37104</v>
+      </c>
+      <c r="B501" t="n">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="3" t="n">
+        <v>37135</v>
+      </c>
+      <c r="B502" t="n">
+        <v>178.1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="3" t="n">
+        <v>37165</v>
+      </c>
+      <c r="B503" t="n">
+        <v>177.6</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="3" t="n">
+        <v>37196</v>
+      </c>
+      <c r="B504" t="n">
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="3" t="n">
+        <v>37226</v>
+      </c>
+      <c r="B505" t="n">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="3" t="n">
+        <v>37257</v>
+      </c>
+      <c r="B506" t="n">
+        <v>177.7</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="3" t="n">
+        <v>37288</v>
+      </c>
+      <c r="B507" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="3" t="n">
+        <v>37316</v>
+      </c>
+      <c r="B508" t="n">
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="3" t="n">
+        <v>37347</v>
+      </c>
+      <c r="B509" t="n">
+        <v>179.3</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="3" t="n">
+        <v>37377</v>
+      </c>
+      <c r="B510" t="n">
+        <v>179.5</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="3" t="n">
+        <v>37408</v>
+      </c>
+      <c r="B511" t="n">
+        <v>179.6</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="3" t="n">
+        <v>37438</v>
+      </c>
+      <c r="B512" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="3" t="n">
+        <v>37469</v>
+      </c>
+      <c r="B513" t="n">
+        <v>180.5</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="3" t="n">
+        <v>37500</v>
+      </c>
+      <c r="B514" t="n">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="3" t="n">
+        <v>37530</v>
+      </c>
+      <c r="B515" t="n">
+        <v>181.2</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="3" t="n">
+        <v>37561</v>
+      </c>
+      <c r="B516" t="n">
+        <v>181.5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="3" t="n">
+        <v>37591</v>
+      </c>
+      <c r="B517" t="n">
+        <v>181.8</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="3" t="n">
+        <v>37622</v>
+      </c>
+      <c r="B518" t="n">
+        <v>182.6</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="3" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B519" t="n">
+        <v>183.6</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="3" t="n">
+        <v>37681</v>
+      </c>
+      <c r="B520" t="n">
+        <v>183.9</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="3" t="n">
+        <v>37712</v>
+      </c>
+      <c r="B521" t="n">
+        <v>183.2</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="3" t="n">
+        <v>37742</v>
+      </c>
+      <c r="B522" t="n">
+        <v>182.9</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="3" t="n">
+        <v>37773</v>
+      </c>
+      <c r="B523" t="n">
+        <v>183.1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="3" t="n">
+        <v>37803</v>
+      </c>
+      <c r="B524" t="n">
+        <v>183.7</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="3" t="n">
+        <v>37834</v>
+      </c>
+      <c r="B525" t="n">
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="3" t="n">
+        <v>37865</v>
+      </c>
+      <c r="B526" t="n">
+        <v>185.1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="3" t="n">
+        <v>37895</v>
+      </c>
+      <c r="B527" t="n">
+        <v>184.9</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="3" t="n">
+        <v>37926</v>
+      </c>
+      <c r="B528" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="3" t="n">
+        <v>37956</v>
+      </c>
+      <c r="B529" t="n">
+        <v>185.5</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="3" t="n">
+        <v>37987</v>
+      </c>
+      <c r="B530" t="n">
+        <v>186.3</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="3" t="n">
+        <v>38018</v>
+      </c>
+      <c r="B531" t="n">
+        <v>186.7</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="3" t="n">
+        <v>38047</v>
+      </c>
+      <c r="B532" t="n">
+        <v>187.1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="3" t="n">
+        <v>38078</v>
+      </c>
+      <c r="B533" t="n">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="3" t="n">
+        <v>38108</v>
+      </c>
+      <c r="B534" t="n">
+        <v>188.2</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="3" t="n">
+        <v>38139</v>
+      </c>
+      <c r="B535" t="n">
+        <v>188.9</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="3" t="n">
+        <v>38169</v>
+      </c>
+      <c r="B536" t="n">
+        <v>189.1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="3" t="n">
+        <v>38200</v>
+      </c>
+      <c r="B537" t="n">
+        <v>189.2</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="3" t="n">
+        <v>38231</v>
+      </c>
+      <c r="B538" t="n">
+        <v>189.8</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="3" t="n">
+        <v>38261</v>
+      </c>
+      <c r="B539" t="n">
+        <v>190.8</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="3" t="n">
+        <v>38292</v>
+      </c>
+      <c r="B540" t="n">
+        <v>191.7</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="3" t="n">
+        <v>38322</v>
+      </c>
+      <c r="B541" t="n">
+        <v>191.7</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="3" t="n">
+        <v>38353</v>
+      </c>
+      <c r="B542" t="n">
+        <v>191.6</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="3" t="n">
+        <v>38384</v>
+      </c>
+      <c r="B543" t="n">
+        <v>192.4</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="3" t="n">
+        <v>38412</v>
+      </c>
+      <c r="B544" t="n">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="3" t="n">
+        <v>38443</v>
+      </c>
+      <c r="B545" t="n">
+        <v>193.7</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="3" t="n">
+        <v>38473</v>
+      </c>
+      <c r="B546" t="n">
+        <v>193.6</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="3" t="n">
+        <v>38504</v>
+      </c>
+      <c r="B547" t="n">
+        <v>193.7</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="3" t="n">
+        <v>38534</v>
+      </c>
+      <c r="B548" t="n">
+        <v>194.9</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="3" t="n">
+        <v>38565</v>
+      </c>
+      <c r="B549" t="n">
+        <v>196.1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="3" t="n">
+        <v>38596</v>
+      </c>
+      <c r="B550" t="n">
+        <v>198.8</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="3" t="n">
+        <v>38626</v>
+      </c>
+      <c r="B551" t="n">
+        <v>199.1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="3" t="n">
+        <v>38657</v>
+      </c>
+      <c r="B552" t="n">
+        <v>198.1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="3" t="n">
+        <v>38687</v>
+      </c>
+      <c r="B553" t="n">
+        <v>198.1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="3" t="n">
+        <v>38718</v>
+      </c>
+      <c r="B554" t="n">
+        <v>199.3</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="3" t="n">
+        <v>38749</v>
+      </c>
+      <c r="B555" t="n">
+        <v>199.4</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="3" t="n">
+        <v>38777</v>
+      </c>
+      <c r="B556" t="n">
+        <v>199.7</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="3" t="n">
+        <v>38808</v>
+      </c>
+      <c r="B557" t="n">
+        <v>200.7</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="3" t="n">
+        <v>38838</v>
+      </c>
+      <c r="B558" t="n">
+        <v>201.3</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="3" t="n">
+        <v>38869</v>
+      </c>
+      <c r="B559" t="n">
+        <v>201.8</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="3" t="n">
+        <v>38899</v>
+      </c>
+      <c r="B560" t="n">
+        <v>202.9</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="3" t="n">
+        <v>38930</v>
+      </c>
+      <c r="B561" t="n">
+        <v>203.8</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="3" t="n">
+        <v>38961</v>
+      </c>
+      <c r="B562" t="n">
+        <v>202.8</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="3" t="n">
+        <v>38991</v>
+      </c>
+      <c r="B563" t="n">
+        <v>201.9</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="3" t="n">
+        <v>39022</v>
+      </c>
+      <c r="B564" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="3" t="n">
+        <v>39052</v>
+      </c>
+      <c r="B565" t="n">
+        <v>203.1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="3" t="n">
+        <v>39083</v>
+      </c>
+      <c r="B566" t="n">
+        <v>203.437</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="3" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B567" t="n">
+        <v>204.226</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="3" t="n">
+        <v>39142</v>
+      </c>
+      <c r="B568" t="n">
+        <v>205.288</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="3" t="n">
+        <v>39173</v>
+      </c>
+      <c r="B569" t="n">
+        <v>205.904</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="3" t="n">
+        <v>39203</v>
+      </c>
+      <c r="B570" t="n">
+        <v>206.755</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="3" t="n">
+        <v>39234</v>
+      </c>
+      <c r="B571" t="n">
+        <v>207.234</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="3" t="n">
+        <v>39264</v>
+      </c>
+      <c r="B572" t="n">
+        <v>207.603</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="3" t="n">
+        <v>39295</v>
+      </c>
+      <c r="B573" t="n">
+        <v>207.667</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="3" t="n">
+        <v>39326</v>
+      </c>
+      <c r="B574" t="n">
+        <v>208.547</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="3" t="n">
+        <v>39356</v>
+      </c>
+      <c r="B575" t="n">
+        <v>209.19</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="3" t="n">
+        <v>39387</v>
+      </c>
+      <c r="B576" t="n">
+        <v>210.834</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="3" t="n">
+        <v>39417</v>
+      </c>
+      <c r="B577" t="n">
+        <v>211.445</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="3" t="n">
+        <v>39448</v>
+      </c>
+      <c r="B578" t="n">
+        <v>212.174</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="3" t="n">
+        <v>39479</v>
+      </c>
+      <c r="B579" t="n">
+        <v>212.687</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="3" t="n">
+        <v>39508</v>
+      </c>
+      <c r="B580" t="n">
+        <v>213.448</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="3" t="n">
+        <v>39539</v>
+      </c>
+      <c r="B581" t="n">
+        <v>213.942</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="3" t="n">
+        <v>39569</v>
+      </c>
+      <c r="B582" t="n">
+        <v>215.208</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="3" t="n">
+        <v>39600</v>
+      </c>
+      <c r="B583" t="n">
+        <v>217.463</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="3" t="n">
+        <v>39630</v>
+      </c>
+      <c r="B584" t="n">
+        <v>219.016</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="3" t="n">
+        <v>39661</v>
+      </c>
+      <c r="B585" t="n">
+        <v>218.69</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="3" t="n">
+        <v>39692</v>
+      </c>
+      <c r="B586" t="n">
+        <v>218.877</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="3" t="n">
+        <v>39722</v>
+      </c>
+      <c r="B587" t="n">
+        <v>216.995</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="3" t="n">
+        <v>39753</v>
+      </c>
+      <c r="B588" t="n">
+        <v>213.153</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="3" t="n">
+        <v>39783</v>
+      </c>
+      <c r="B589" t="n">
+        <v>211.398</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="3" t="n">
+        <v>39814</v>
+      </c>
+      <c r="B590" t="n">
+        <v>211.933</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="3" t="n">
+        <v>39845</v>
+      </c>
+      <c r="B591" t="n">
+        <v>212.705</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="3" t="n">
+        <v>39873</v>
+      </c>
+      <c r="B592" t="n">
+        <v>212.495</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="3" t="n">
+        <v>39904</v>
+      </c>
+      <c r="B593" t="n">
+        <v>212.709</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="3" t="n">
+        <v>39934</v>
+      </c>
+      <c r="B594" t="n">
+        <v>213.022</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="3" t="n">
+        <v>39965</v>
+      </c>
+      <c r="B595" t="n">
+        <v>214.79</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="3" t="n">
+        <v>39995</v>
+      </c>
+      <c r="B596" t="n">
+        <v>214.726</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="3" t="n">
+        <v>40026</v>
+      </c>
+      <c r="B597" t="n">
+        <v>215.445</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="3" t="n">
+        <v>40057</v>
+      </c>
+      <c r="B598" t="n">
+        <v>215.861</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="3" t="n">
+        <v>40087</v>
+      </c>
+      <c r="B599" t="n">
+        <v>216.509</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="3" t="n">
+        <v>40118</v>
+      </c>
+      <c r="B600" t="n">
+        <v>217.234</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="3" t="n">
+        <v>40148</v>
+      </c>
+      <c r="B601" t="n">
+        <v>217.347</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="3" t="n">
+        <v>40179</v>
+      </c>
+      <c r="B602" t="n">
+        <v>217.488</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="3" t="n">
+        <v>40210</v>
+      </c>
+      <c r="B603" t="n">
+        <v>217.281</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="3" t="n">
+        <v>40238</v>
+      </c>
+      <c r="B604" t="n">
+        <v>217.353</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="3" t="n">
+        <v>40269</v>
+      </c>
+      <c r="B605" t="n">
+        <v>217.403</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="3" t="n">
+        <v>40299</v>
+      </c>
+      <c r="B606" t="n">
+        <v>217.29</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="3" t="n">
+        <v>40330</v>
+      </c>
+      <c r="B607" t="n">
+        <v>217.199</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="3" t="n">
+        <v>40360</v>
+      </c>
+      <c r="B608" t="n">
+        <v>217.605</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="3" t="n">
+        <v>40391</v>
+      </c>
+      <c r="B609" t="n">
+        <v>217.923</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="3" t="n">
+        <v>40422</v>
+      </c>
+      <c r="B610" t="n">
+        <v>218.275</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="3" t="n">
+        <v>40452</v>
+      </c>
+      <c r="B611" t="n">
+        <v>219.035</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="3" t="n">
+        <v>40483</v>
+      </c>
+      <c r="B612" t="n">
+        <v>219.59</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="3" t="n">
+        <v>40513</v>
+      </c>
+      <c r="B613" t="n">
+        <v>220.472</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="3" t="n">
+        <v>40544</v>
+      </c>
+      <c r="B614" t="n">
+        <v>221.187</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="3" t="n">
+        <v>40575</v>
+      </c>
+      <c r="B615" t="n">
+        <v>221.898</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="3" t="n">
+        <v>40603</v>
+      </c>
+      <c r="B616" t="n">
+        <v>223.046</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="3" t="n">
+        <v>40634</v>
+      </c>
+      <c r="B617" t="n">
+        <v>224.093</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="3" t="n">
+        <v>40664</v>
+      </c>
+      <c r="B618" t="n">
+        <v>224.806</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="3" t="n">
+        <v>40695</v>
+      </c>
+      <c r="B619" t="n">
+        <v>224.806</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="3" t="n">
+        <v>40725</v>
+      </c>
+      <c r="B620" t="n">
+        <v>225.395</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="3" t="n">
+        <v>40756</v>
+      </c>
+      <c r="B621" t="n">
+        <v>226.106</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="3" t="n">
+        <v>40787</v>
+      </c>
+      <c r="B622" t="n">
+        <v>226.597</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="3" t="n">
+        <v>40817</v>
+      </c>
+      <c r="B623" t="n">
+        <v>226.75</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="3" t="n">
+        <v>40848</v>
+      </c>
+      <c r="B624" t="n">
+        <v>227.169</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="3" t="n">
+        <v>40878</v>
+      </c>
+      <c r="B625" t="n">
+        <v>227.223</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="3" t="n">
+        <v>40909</v>
+      </c>
+      <c r="B626" t="n">
+        <v>227.842</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="3" t="n">
+        <v>40940</v>
+      </c>
+      <c r="B627" t="n">
+        <v>228.329</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="3" t="n">
+        <v>40969</v>
+      </c>
+      <c r="B628" t="n">
+        <v>228.807</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="3" t="n">
+        <v>41000</v>
+      </c>
+      <c r="B629" t="n">
+        <v>229.187</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="3" t="n">
+        <v>41030</v>
+      </c>
+      <c r="B630" t="n">
+        <v>228.713</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="3" t="n">
+        <v>41061</v>
+      </c>
+      <c r="B631" t="n">
+        <v>228.524</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="3" t="n">
+        <v>41091</v>
+      </c>
+      <c r="B632" t="n">
+        <v>228.59</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="3" t="n">
+        <v>41122</v>
+      </c>
+      <c r="B633" t="n">
+        <v>229.918</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="3" t="n">
+        <v>41153</v>
+      </c>
+      <c r="B634" t="n">
+        <v>231.015</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="3" t="n">
+        <v>41183</v>
+      </c>
+      <c r="B635" t="n">
+        <v>231.638</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="3" t="n">
+        <v>41214</v>
+      </c>
+      <c r="B636" t="n">
+        <v>231.249</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="3" t="n">
+        <v>41244</v>
+      </c>
+      <c r="B637" t="n">
+        <v>231.221</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="3" t="n">
+        <v>41275</v>
+      </c>
+      <c r="B638" t="n">
+        <v>231.679</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="3" t="n">
+        <v>41306</v>
+      </c>
+      <c r="B639" t="n">
+        <v>232.937</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="3" t="n">
+        <v>41334</v>
+      </c>
+      <c r="B640" t="n">
+        <v>232.282</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="3" t="n">
+        <v>41365</v>
+      </c>
+      <c r="B641" t="n">
+        <v>231.797</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="3" t="n">
+        <v>41395</v>
+      </c>
+      <c r="B642" t="n">
+        <v>231.893</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="3" t="n">
+        <v>41426</v>
+      </c>
+      <c r="B643" t="n">
+        <v>232.445</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="3" t="n">
+        <v>41456</v>
+      </c>
+      <c r="B644" t="n">
+        <v>232.9</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="3" t="n">
+        <v>41487</v>
+      </c>
+      <c r="B645" t="n">
+        <v>233.456</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="3" t="n">
+        <v>41518</v>
+      </c>
+      <c r="B646" t="n">
+        <v>233.544</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="3" t="n">
+        <v>41548</v>
+      </c>
+      <c r="B647" t="n">
+        <v>233.669</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="3" t="n">
+        <v>41579</v>
+      </c>
+      <c r="B648" t="n">
+        <v>234.1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="3" t="n">
+        <v>41609</v>
+      </c>
+      <c r="B649" t="n">
+        <v>234.719</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="3" t="n">
+        <v>41640</v>
+      </c>
+      <c r="B650" t="n">
+        <v>235.288</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="3" t="n">
+        <v>41671</v>
+      </c>
+      <c r="B651" t="n">
+        <v>235.547</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="3" t="n">
+        <v>41699</v>
+      </c>
+      <c r="B652" t="n">
+        <v>236.028</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="3" t="n">
+        <v>41730</v>
+      </c>
+      <c r="B653" t="n">
+        <v>236.468</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="3" t="n">
+        <v>41760</v>
+      </c>
+      <c r="B654" t="n">
+        <v>236.918</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="3" t="n">
+        <v>41791</v>
+      </c>
+      <c r="B655" t="n">
+        <v>237.231</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="3" t="n">
+        <v>41821</v>
+      </c>
+      <c r="B656" t="n">
+        <v>237.498</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="3" t="n">
+        <v>41852</v>
+      </c>
+      <c r="B657" t="n">
+        <v>237.46</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="3" t="n">
+        <v>41883</v>
+      </c>
+      <c r="B658" t="n">
+        <v>237.477</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="3" t="n">
+        <v>41913</v>
+      </c>
+      <c r="B659" t="n">
+        <v>237.43</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="3" t="n">
+        <v>41944</v>
+      </c>
+      <c r="B660" t="n">
+        <v>236.983</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="3" t="n">
+        <v>41974</v>
+      </c>
+      <c r="B661" t="n">
+        <v>236.252</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="3" t="n">
+        <v>42005</v>
+      </c>
+      <c r="B662" t="n">
+        <v>234.747</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="3" t="n">
+        <v>42036</v>
+      </c>
+      <c r="B663" t="n">
+        <v>235.342</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="3" t="n">
+        <v>42064</v>
+      </c>
+      <c r="B664" t="n">
+        <v>235.976</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="3" t="n">
+        <v>42095</v>
+      </c>
+      <c r="B665" t="n">
+        <v>236.222</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="3" t="n">
+        <v>42125</v>
+      </c>
+      <c r="B666" t="n">
+        <v>237.001</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="3" t="n">
+        <v>42156</v>
+      </c>
+      <c r="B667" t="n">
+        <v>237.657</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="3" t="n">
+        <v>42186</v>
+      </c>
+      <c r="B668" t="n">
+        <v>238.034</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="3" t="n">
+        <v>42217</v>
+      </c>
+      <c r="B669" t="n">
+        <v>238.033</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="3" t="n">
+        <v>42248</v>
+      </c>
+      <c r="B670" t="n">
+        <v>237.498</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="3" t="n">
+        <v>42278</v>
+      </c>
+      <c r="B671" t="n">
+        <v>237.733</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="3" t="n">
+        <v>42309</v>
+      </c>
+      <c r="B672" t="n">
+        <v>238.017</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="3" t="n">
+        <v>42339</v>
+      </c>
+      <c r="B673" t="n">
+        <v>237.761</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="3" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B674" t="n">
+        <v>237.652</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="3" t="n">
+        <v>42401</v>
+      </c>
+      <c r="B675" t="n">
+        <v>237.336</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="3" t="n">
+        <v>42430</v>
+      </c>
+      <c r="B676" t="n">
+        <v>238.08</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="3" t="n">
+        <v>42461</v>
+      </c>
+      <c r="B677" t="n">
+        <v>238.992</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="3" t="n">
+        <v>42491</v>
+      </c>
+      <c r="B678" t="n">
+        <v>239.557</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="3" t="n">
+        <v>42522</v>
+      </c>
+      <c r="B679" t="n">
+        <v>240.222</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="3" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B680" t="n">
+        <v>240.101</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="3" t="n">
+        <v>42583</v>
+      </c>
+      <c r="B681" t="n">
+        <v>240.545</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="3" t="n">
+        <v>42614</v>
+      </c>
+      <c r="B682" t="n">
+        <v>241.176</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="3" t="n">
+        <v>42644</v>
+      </c>
+      <c r="B683" t="n">
+        <v>241.741</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="3" t="n">
+        <v>42675</v>
+      </c>
+      <c r="B684" t="n">
+        <v>242.026</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="3" t="n">
+        <v>42705</v>
+      </c>
+      <c r="B685" t="n">
+        <v>242.637</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="3" t="n">
+        <v>42736</v>
+      </c>
+      <c r="B686" t="n">
+        <v>243.618</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="3" t="n">
+        <v>42767</v>
+      </c>
+      <c r="B687" t="n">
+        <v>244.006</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="3" t="n">
+        <v>42795</v>
+      </c>
+      <c r="B688" t="n">
+        <v>243.892</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="3" t="n">
+        <v>42826</v>
+      </c>
+      <c r="B689" t="n">
+        <v>244.193</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="3" t="n">
+        <v>42856</v>
+      </c>
+      <c r="B690" t="n">
+        <v>244.004</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="3" t="n">
+        <v>42887</v>
+      </c>
+      <c r="B691" t="n">
+        <v>244.163</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="3" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B692" t="n">
+        <v>244.243</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="3" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B693" t="n">
+        <v>245.183</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="3" t="n">
+        <v>42979</v>
+      </c>
+      <c r="B694" t="n">
+        <v>246.435</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="3" t="n">
+        <v>43009</v>
+      </c>
+      <c r="B695" t="n">
+        <v>246.626</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="3" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B696" t="n">
+        <v>247.284</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="3" t="n">
+        <v>43070</v>
+      </c>
+      <c r="B697" t="n">
+        <v>247.805</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B698" t="n">
+        <v>248.859</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B699" t="n">
+        <v>249.529</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B700" t="n">
+        <v>249.577</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B701" t="n">
+        <v>250.227</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B702" t="n">
+        <v>250.792</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B703" t="n">
+        <v>251.018</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B704" t="n">
+        <v>251.214</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B705" t="n">
+        <v>251.663</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B706" t="n">
+        <v>252.182</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B707" t="n">
+        <v>252.772</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B708" t="n">
+        <v>252.594</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B709" t="n">
+        <v>252.767</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B710" t="n">
+        <v>252.561</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B711" t="n">
+        <v>253.319</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B712" t="n">
+        <v>254.277</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B713" t="n">
+        <v>255.233</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B714" t="n">
+        <v>255.296</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="3" t="n">
+        <v>43617</v>
+      </c>
+      <c r="B715" t="n">
+        <v>255.213</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="3" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B716" t="n">
+        <v>255.802</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="3" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B717" t="n">
+        <v>256.036</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="3" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B718" t="n">
+        <v>256.43</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="3" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B719" t="n">
+        <v>257.155</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="3" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B720" t="n">
+        <v>257.879</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="3" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B721" t="n">
+        <v>258.63</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="3" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B722" t="n">
+        <v>258.906</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="3" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B723" t="n">
+        <v>259.246</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="3" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B724" t="n">
+        <v>258.15</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="3" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B725" t="n">
+        <v>256.126</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="3" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B726" t="n">
+        <v>255.848</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="3" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B727" t="n">
+        <v>257.004</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="3" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B728" t="n">
+        <v>258.408</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="3" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B729" t="n">
+        <v>259.366</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="3" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B730" t="n">
+        <v>259.951</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B731" t="n">
+        <v>260.249</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="3" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B732" t="n">
+        <v>260.895</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="3" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B733" t="n">
+        <v>262.005</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="3" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B734" t="n">
+        <v>262.518</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="3" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B735" t="n">
+        <v>263.583</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="3" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B736" t="n">
+        <v>264.91</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="3" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B737" t="n">
+        <v>266.752</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="3" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B738" t="n">
+        <v>268.452</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="3" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B739" t="n">
+        <v>270.664</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="3" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B740" t="n">
+        <v>271.994</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="3" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B741" t="n">
+        <v>272.789</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B742" t="n">
+        <v>273.887</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="3" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B743" t="n">
+        <v>276.434</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="3" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B744" t="n">
+        <v>278.799</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="3" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B745" t="n">
+        <v>280.808</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="3" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B746" t="n">
+        <v>282.39</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="3" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B747" t="n">
+        <v>284.535</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="3" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B748" t="n">
+        <v>287.553</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="3" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B749" t="n">
+        <v>288.764</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="3" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B750" t="n">
+        <v>291.359</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="3" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B751" t="n">
+        <v>294.996</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="3" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B752" t="n">
+        <v>294.977</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="3" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B753" t="n">
+        <v>295.209</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="3" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B754" t="n">
+        <v>296.341</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="3" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B755" t="n">
+        <v>297.863</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B756" t="n">
+        <v>298.648</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="3" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B757" t="n">
+        <v>298.812</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B758" t="n">
+        <v>300.356</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="3" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B759" t="n">
+        <v>301.509</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="3" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B760" t="n">
+        <v>301.744</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="3" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B761" t="n">
+        <v>303.032</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="3" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B762" t="n">
+        <v>303.365</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="3" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B763" t="n">
+        <v>304.003</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B764" t="n">
+        <v>304.628</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="3" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B765" t="n">
+        <v>306.187</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="3" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B766" t="n">
+        <v>307.288</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="3" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B767" t="n">
+        <v>307.531</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="3" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B768" t="n">
+        <v>308.024</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="3" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B769" t="n">
+        <v>308.742</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B770" t="n">
+        <v>309.685</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="3" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B771" t="n">
+        <v>311.054</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="3" t="n">
         <v>45352</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B772" t="n">
         <v>312.23</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B773" t="n">
+        <v>313.207</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="3" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B774" t="n">
+        <v>313.225</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="3" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B775" t="n">
+        <v>313.049</v>
       </c>
     </row>
   </sheetData>
@@ -3803,7 +6707,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>U.S Consumer price index (CPI)</t>
+          <t>CPI USA</t>
         </is>
       </c>
     </row>
